--- a/Files/Р.xlsx
+++ b/Files/Р.xlsx
@@ -2732,31 +2732,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="48" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="173" fontId="48" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="48" fillId="13" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="173" fontId="48" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="49" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="49" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="173" fontId="50" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2858,6 +2837,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="48" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="48" fillId="13" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="49" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="49" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -24781,7 +24781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -25493,43 +25493,43 @@
       <c r="AZ8" s="3"/>
     </row>
     <row r="9" spans="1:52" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="355" t="s">
+      <c r="A9" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="357" t="s">
+      <c r="B9" s="350" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="359" t="s">
+      <c r="C9" s="352" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="361" t="s">
+      <c r="D9" s="354" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="363" t="s">
+      <c r="E9" s="356" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="365" t="s">
+      <c r="F9" s="358" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="343" t="s">
+      <c r="G9" s="336" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="345" t="s">
+      <c r="H9" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="346"/>
-      <c r="J9" s="346"/>
-      <c r="K9" s="346"/>
-      <c r="L9" s="347"/>
-      <c r="M9" s="348" t="s">
+      <c r="I9" s="339"/>
+      <c r="J9" s="339"/>
+      <c r="K9" s="339"/>
+      <c r="L9" s="340"/>
+      <c r="M9" s="341" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="349"/>
-      <c r="O9" s="349"/>
-      <c r="P9" s="349"/>
-      <c r="Q9" s="349"/>
-      <c r="R9" s="349"/>
-      <c r="S9" s="350"/>
+      <c r="N9" s="342"/>
+      <c r="O9" s="342"/>
+      <c r="P9" s="342"/>
+      <c r="Q9" s="342"/>
+      <c r="R9" s="342"/>
+      <c r="S9" s="343"/>
       <c r="T9" s="33" t="s">
         <v>15</v>
       </c>
@@ -25567,13 +25567,13 @@
       <c r="AZ9" s="36"/>
     </row>
     <row r="10" spans="1:52" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="356"/>
-      <c r="B10" s="358"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="362"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="366"/>
-      <c r="G10" s="344"/>
+      <c r="A10" s="349"/>
+      <c r="B10" s="351"/>
+      <c r="C10" s="353"/>
+      <c r="D10" s="355"/>
+      <c r="E10" s="357"/>
+      <c r="F10" s="359"/>
+      <c r="G10" s="337"/>
       <c r="H10" s="37" t="s">
         <v>16</v>
       </c>
@@ -25689,7 +25689,7 @@
       <c r="K11" s="62"/>
       <c r="L11" s="64">
         <f>SUM(L12:L15)</f>
-        <v>0</v>
+        <v>9887.9370000000017</v>
       </c>
       <c r="M11" s="65">
         <f>SUM(M21,M41,M66,M86,M101)</f>
@@ -25724,7 +25724,7 @@
       </c>
       <c r="U11" s="70">
         <f>SUM(U12:U15)</f>
-        <v>0</v>
+        <v>9887.9370000000017</v>
       </c>
       <c r="V11" s="71" t="e">
         <f>S11</f>
@@ -25876,7 +25876,7 @@
       </c>
       <c r="I13" s="105">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1076449</v>
       </c>
       <c r="J13" s="106">
         <f t="shared" si="3"/>
@@ -25885,7 +25885,7 @@
       <c r="K13" s="105"/>
       <c r="L13" s="107">
         <f>I13*G13/5</f>
-        <v>0</v>
+        <v>1076.4490000000001</v>
       </c>
       <c r="M13" s="108"/>
       <c r="N13" s="109"/>
@@ -25897,7 +25897,7 @@
       <c r="T13" s="110"/>
       <c r="U13" s="112">
         <f>L13</f>
-        <v>0</v>
+        <v>1076.4490000000001</v>
       </c>
       <c r="V13" s="113"/>
       <c r="W13" s="113"/>
@@ -25949,7 +25949,7 @@
       </c>
       <c r="I14" s="120">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2202872</v>
       </c>
       <c r="J14" s="121">
         <f t="shared" si="3"/>
@@ -25958,7 +25958,7 @@
       <c r="K14" s="120"/>
       <c r="L14" s="122">
         <f>I14*G14/5</f>
-        <v>0</v>
+        <v>8811.4880000000012</v>
       </c>
       <c r="M14" s="108"/>
       <c r="N14" s="109"/>
@@ -25970,7 +25970,7 @@
       <c r="T14" s="110"/>
       <c r="U14" s="123">
         <f>L14</f>
-        <v>0</v>
+        <v>8811.4880000000012</v>
       </c>
       <c r="V14" s="113"/>
       <c r="W14" s="113"/>
@@ -26456,7 +26456,7 @@
       <c r="K21" s="62"/>
       <c r="L21" s="158">
         <f>SUM(L22:L25)</f>
-        <v>0</v>
+        <v>8781.4449999999979</v>
       </c>
       <c r="M21" s="65">
         <f>M26+M31+M36</f>
@@ -26486,7 +26486,7 @@
       </c>
       <c r="U21" s="70">
         <f>SUM(U22:U25)</f>
-        <v>0</v>
+        <v>8781.4449999999979</v>
       </c>
       <c r="V21" s="71" t="e">
         <f>V26+V31+V36</f>
@@ -26637,7 +26637,7 @@
       </c>
       <c r="I23" s="105">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31089</v>
       </c>
       <c r="J23" s="106">
         <f t="shared" si="3"/>
@@ -26646,7 +26646,7 @@
       <c r="K23" s="105"/>
       <c r="L23" s="107">
         <f>L28+L33+L38</f>
-        <v>0</v>
+        <v>155.44499999999999</v>
       </c>
       <c r="M23" s="108"/>
       <c r="N23" s="109"/>
@@ -26658,7 +26658,7 @@
       <c r="T23" s="110"/>
       <c r="U23" s="112">
         <f>U28+U33+U38</f>
-        <v>0</v>
+        <v>155.44499999999999</v>
       </c>
       <c r="V23" s="113"/>
       <c r="W23" s="113"/>
@@ -26711,7 +26711,7 @@
       </c>
       <c r="I24" s="120">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>431300</v>
       </c>
       <c r="J24" s="121">
         <f t="shared" si="3"/>
@@ -26720,7 +26720,7 @@
       <c r="K24" s="120"/>
       <c r="L24" s="122">
         <f>L29+L34+L39</f>
-        <v>0</v>
+        <v>8625.9999999999982</v>
       </c>
       <c r="M24" s="108"/>
       <c r="N24" s="109"/>
@@ -26732,7 +26732,7 @@
       <c r="T24" s="110"/>
       <c r="U24" s="123">
         <f>U29+U34+U39</f>
-        <v>0</v>
+        <v>8625.9999999999982</v>
       </c>
       <c r="V24" s="113"/>
       <c r="W24" s="113"/>
@@ -26868,7 +26868,7 @@
       <c r="K26" s="68"/>
       <c r="L26" s="64">
         <f>SUM(L27:L30)</f>
-        <v>0</v>
+        <v>72.024999999999991</v>
       </c>
       <c r="M26" s="65">
         <f>M27+M28</f>
@@ -26897,7 +26897,7 @@
       </c>
       <c r="U26" s="70">
         <f>SUM(U27:U30)</f>
-        <v>0</v>
+        <v>72.024999999999991</v>
       </c>
       <c r="V26" s="71">
         <f>S26</f>
@@ -26905,7 +26905,7 @@
       </c>
       <c r="W26" s="72">
         <f>IF(U26-V26&lt;0,0,U26-V26)</f>
-        <v>0</v>
+        <v>72.024999999999991</v>
       </c>
       <c r="X26" s="73">
         <f>SUM(X27:X30)</f>
@@ -26913,11 +26913,11 @@
       </c>
       <c r="Y26" s="74">
         <f>W26+X26</f>
-        <v>0</v>
+        <v>72.024999999999991</v>
       </c>
       <c r="Z26" s="69">
         <f>T26+Y26</f>
-        <v>30900</v>
+        <v>30972.025000000001</v>
       </c>
       <c r="AA26" s="75">
         <f>SUM(AA27:AA30)</f>
@@ -26925,7 +26925,7 @@
       </c>
       <c r="AB26" s="76">
         <f>Z26-AA26</f>
-        <v>30900</v>
+        <v>30972.025000000001</v>
       </c>
       <c r="AC26" s="74"/>
       <c r="AD26" s="3"/>
@@ -27058,7 +27058,7 @@
       </c>
       <c r="I28" s="105">
         <f>R163</f>
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="J28" s="106">
         <f t="shared" si="5"/>
@@ -27067,7 +27067,7 @@
       <c r="K28" s="105"/>
       <c r="L28" s="107">
         <f>I28*G28</f>
-        <v>0</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="M28" s="108"/>
       <c r="N28" s="109"/>
@@ -27079,7 +27079,7 @@
       <c r="T28" s="110"/>
       <c r="U28" s="112">
         <f>L28</f>
-        <v>0</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="V28" s="113"/>
       <c r="W28" s="113"/>
@@ -27136,7 +27136,7 @@
       </c>
       <c r="I29" s="120">
         <f>T163</f>
-        <v>0</v>
+        <v>3465</v>
       </c>
       <c r="J29" s="121">
         <f t="shared" si="5"/>
@@ -27145,7 +27145,7 @@
       <c r="K29" s="120"/>
       <c r="L29" s="122">
         <f>I29*G29</f>
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="M29" s="108"/>
       <c r="N29" s="109"/>
@@ -27157,7 +27157,7 @@
       <c r="T29" s="110"/>
       <c r="U29" s="123">
         <f>L29</f>
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="V29" s="113"/>
       <c r="W29" s="113"/>
@@ -27283,7 +27283,7 @@
       <c r="K31" s="68"/>
       <c r="L31" s="64">
         <f>SUM(L32:L35)</f>
-        <v>0</v>
+        <v>8613.5499999999993</v>
       </c>
       <c r="M31" s="65">
         <f>M32+M33</f>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="U31" s="70">
         <f>SUM(U32:U35)</f>
-        <v>0</v>
+        <v>8613.5499999999993</v>
       </c>
       <c r="V31" s="71" t="e">
         <f>S31</f>
@@ -27474,7 +27474,7 @@
       </c>
       <c r="I33" s="105">
         <f>R165</f>
-        <v>0</v>
+        <v>19266</v>
       </c>
       <c r="J33" s="106">
         <f>IF(H33=0,0,I33/H33)</f>
@@ -27483,7 +27483,7 @@
       <c r="K33" s="105"/>
       <c r="L33" s="107">
         <f>I33*G33</f>
-        <v>0</v>
+        <v>96.33</v>
       </c>
       <c r="M33" s="108"/>
       <c r="N33" s="109"/>
@@ -27495,7 +27495,7 @@
       <c r="T33" s="110"/>
       <c r="U33" s="112">
         <f>L33</f>
-        <v>0</v>
+        <v>96.33</v>
       </c>
       <c r="V33" s="113"/>
       <c r="W33" s="113"/>
@@ -27552,7 +27552,7 @@
       </c>
       <c r="I34" s="120">
         <f>T165</f>
-        <v>0</v>
+        <v>425861</v>
       </c>
       <c r="J34" s="121">
         <f t="shared" si="5"/>
@@ -27561,7 +27561,7 @@
       <c r="K34" s="120"/>
       <c r="L34" s="122">
         <f>I34*G34</f>
-        <v>0</v>
+        <v>8517.2199999999993</v>
       </c>
       <c r="M34" s="108"/>
       <c r="N34" s="109"/>
@@ -27573,7 +27573,7 @@
       <c r="T34" s="110"/>
       <c r="U34" s="123">
         <f>L34</f>
-        <v>0</v>
+        <v>8517.2199999999993</v>
       </c>
       <c r="V34" s="113"/>
       <c r="W34" s="113"/>
@@ -27703,7 +27703,7 @@
       <c r="K36" s="68"/>
       <c r="L36" s="64">
         <f>SUM(L37:L40)</f>
-        <v>0</v>
+        <v>95.87</v>
       </c>
       <c r="M36" s="65">
         <f>M37+M38</f>
@@ -27733,7 +27733,7 @@
       </c>
       <c r="U36" s="70">
         <f>SUM(U37:U40)</f>
-        <v>0</v>
+        <v>95.87</v>
       </c>
       <c r="V36" s="71">
         <f>S36</f>
@@ -27741,7 +27741,7 @@
       </c>
       <c r="W36" s="72">
         <f>IF(U36-V36&lt;0,0,U36-V36)</f>
-        <v>0</v>
+        <v>95.87</v>
       </c>
       <c r="X36" s="73">
         <f>SUM(X37:X40)</f>
@@ -27749,11 +27749,11 @@
       </c>
       <c r="Y36" s="74">
         <f>W36+X36</f>
-        <v>5000</v>
+        <v>5095.87</v>
       </c>
       <c r="Z36" s="69">
         <f>T36+Y36</f>
-        <v>30000</v>
+        <v>30095.87</v>
       </c>
       <c r="AA36" s="75">
         <f>SUM(AA37:AA40)</f>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="AB36" s="76">
         <f>Z36-AA36</f>
-        <v>30000</v>
+        <v>30095.87</v>
       </c>
       <c r="AC36" s="74"/>
       <c r="AD36" s="3"/>
@@ -27894,7 +27894,7 @@
       </c>
       <c r="I38" s="105">
         <f>R168</f>
-        <v>0</v>
+        <v>11278</v>
       </c>
       <c r="J38" s="106">
         <f>IF(H38=0,0,I38/H38)</f>
@@ -27903,7 +27903,7 @@
       <c r="K38" s="105"/>
       <c r="L38" s="107">
         <f>I38*G38</f>
-        <v>0</v>
+        <v>56.39</v>
       </c>
       <c r="M38" s="108"/>
       <c r="N38" s="109"/>
@@ -27915,7 +27915,7 @@
       <c r="T38" s="110"/>
       <c r="U38" s="112">
         <f>L38</f>
-        <v>0</v>
+        <v>56.39</v>
       </c>
       <c r="V38" s="113"/>
       <c r="W38" s="113"/>
@@ -27972,7 +27972,7 @@
       </c>
       <c r="I39" s="120">
         <f>T168</f>
-        <v>0</v>
+        <v>1974</v>
       </c>
       <c r="J39" s="121">
         <f>IF(H39=0,0,I39/H39)</f>
@@ -27981,7 +27981,7 @@
       <c r="K39" s="120"/>
       <c r="L39" s="122">
         <f>I39*G39</f>
-        <v>0</v>
+        <v>39.480000000000004</v>
       </c>
       <c r="M39" s="108"/>
       <c r="N39" s="109"/>
@@ -27993,7 +27993,7 @@
       <c r="T39" s="110"/>
       <c r="U39" s="123">
         <f>L39</f>
-        <v>0</v>
+        <v>39.480000000000004</v>
       </c>
       <c r="V39" s="113"/>
       <c r="W39" s="113"/>
@@ -28121,7 +28121,7 @@
       <c r="K41" s="62"/>
       <c r="L41" s="158">
         <f>SUM(L42:L45)</f>
-        <v>0</v>
+        <v>13151.748333333333</v>
       </c>
       <c r="M41" s="65">
         <f>M46+M56+M61+M51</f>
@@ -28148,7 +28148,7 @@
       </c>
       <c r="U41" s="70">
         <f>SUM(U42:U45)</f>
-        <v>0</v>
+        <v>13151.748333333333</v>
       </c>
       <c r="V41" s="67" t="e">
         <f>V46+V56+V61+V51</f>
@@ -28299,7 +28299,7 @@
       </c>
       <c r="I43" s="105">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>608059</v>
       </c>
       <c r="J43" s="106">
         <f t="shared" si="5"/>
@@ -28308,7 +28308,7 @@
       <c r="K43" s="105"/>
       <c r="L43" s="107">
         <f>L48+L58+L63+L53</f>
-        <v>0</v>
+        <v>4020.0450000000001</v>
       </c>
       <c r="M43" s="108"/>
       <c r="N43" s="109"/>
@@ -28320,7 +28320,7 @@
       <c r="T43" s="110"/>
       <c r="U43" s="112">
         <f>U48+U58+U63+U53</f>
-        <v>0</v>
+        <v>4020.0450000000001</v>
       </c>
       <c r="V43" s="113"/>
       <c r="W43" s="113"/>
@@ -28373,7 +28373,7 @@
       </c>
       <c r="I44" s="120">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>323327</v>
       </c>
       <c r="J44" s="121">
         <f t="shared" si="5"/>
@@ -28382,7 +28382,7 @@
       <c r="K44" s="120"/>
       <c r="L44" s="122">
         <f>L49+L59+L64+L54</f>
-        <v>0</v>
+        <v>9131.7033333333329</v>
       </c>
       <c r="M44" s="108"/>
       <c r="N44" s="109"/>
@@ -28394,7 +28394,7 @@
       <c r="T44" s="110"/>
       <c r="U44" s="123">
         <f>U49+U59+U64+U54</f>
-        <v>0</v>
+        <v>9131.7033333333329</v>
       </c>
       <c r="V44" s="113"/>
       <c r="W44" s="113"/>
@@ -28530,7 +28530,7 @@
       <c r="K46" s="68"/>
       <c r="L46" s="64">
         <f>SUM(L47:L50)</f>
-        <v>0</v>
+        <v>4039.4283333333333</v>
       </c>
       <c r="M46" s="65">
         <f>M47+M48</f>
@@ -28560,7 +28560,7 @@
       </c>
       <c r="U46" s="70">
         <f>SUM(U47:U50)</f>
-        <v>0</v>
+        <v>4039.4283333333333</v>
       </c>
       <c r="V46" s="71" t="e">
         <f>S46</f>
@@ -28721,7 +28721,7 @@
       </c>
       <c r="I48" s="105">
         <f>R157</f>
-        <v>0</v>
+        <v>78903</v>
       </c>
       <c r="J48" s="106">
         <f t="shared" si="5"/>
@@ -28730,7 +28730,7 @@
       <c r="K48" s="105"/>
       <c r="L48" s="107">
         <f>I48*G48+L53/2+L58/3+L63/3</f>
-        <v>0</v>
+        <v>1374.2650000000001</v>
       </c>
       <c r="M48" s="108"/>
       <c r="N48" s="109"/>
@@ -28742,7 +28742,7 @@
       <c r="T48" s="110"/>
       <c r="U48" s="112">
         <f>L48</f>
-        <v>0</v>
+        <v>1374.2650000000001</v>
       </c>
       <c r="V48" s="113"/>
       <c r="W48" s="113"/>
@@ -28808,7 +28808,7 @@
       <c r="K49" s="120"/>
       <c r="L49" s="122">
         <f>I49*G49+L54/2+L59/3+L64/3</f>
-        <v>0</v>
+        <v>2665.1633333333334</v>
       </c>
       <c r="M49" s="108"/>
       <c r="N49" s="109"/>
@@ -28820,7 +28820,7 @@
       <c r="T49" s="110"/>
       <c r="U49" s="123">
         <f>L49</f>
-        <v>0</v>
+        <v>2665.1633333333334</v>
       </c>
       <c r="V49" s="113"/>
       <c r="W49" s="113"/>
@@ -28946,7 +28946,7 @@
       <c r="K51" s="68"/>
       <c r="L51" s="64">
         <f>SUM(L52:L55)</f>
-        <v>0</v>
+        <v>3644.84</v>
       </c>
       <c r="M51" s="65">
         <f>M52+M53</f>
@@ -28976,7 +28976,7 @@
       </c>
       <c r="U51" s="70">
         <f>SUM(U52:U55)</f>
-        <v>0</v>
+        <v>3644.84</v>
       </c>
       <c r="V51" s="71">
         <f>S51</f>
@@ -28984,7 +28984,7 @@
       </c>
       <c r="W51" s="72">
         <f>IF(U51-V51&lt;0,0,U51-V51)</f>
-        <v>0</v>
+        <v>3644.84</v>
       </c>
       <c r="X51" s="73">
         <f>SUM(X52:X55)</f>
@@ -28992,11 +28992,11 @@
       </c>
       <c r="Y51" s="74">
         <f>W51+X51</f>
-        <v>0</v>
+        <v>3644.84</v>
       </c>
       <c r="Z51" s="69">
         <f>T51+Y51</f>
-        <v>25000</v>
+        <v>28644.84</v>
       </c>
       <c r="AA51" s="75">
         <f>SUM(AA52:AA55)</f>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="AB51" s="76">
         <f>Z51-AA51</f>
-        <v>25000</v>
+        <v>28644.84</v>
       </c>
       <c r="AC51" s="74"/>
       <c r="AD51" s="3"/>
@@ -29137,7 +29137,7 @@
       </c>
       <c r="I53" s="105">
         <f>R161</f>
-        <v>0</v>
+        <v>117388</v>
       </c>
       <c r="J53" s="106">
         <f>IF(H53=0,0,I53/H53)</f>
@@ -29146,7 +29146,7 @@
       <c r="K53" s="105"/>
       <c r="L53" s="107">
         <f>I53*G53</f>
-        <v>0</v>
+        <v>586.94000000000005</v>
       </c>
       <c r="M53" s="108"/>
       <c r="N53" s="109"/>
@@ -29158,7 +29158,7 @@
       <c r="T53" s="110"/>
       <c r="U53" s="112">
         <f>L53</f>
-        <v>0</v>
+        <v>586.94000000000005</v>
       </c>
       <c r="V53" s="113"/>
       <c r="W53" s="113"/>
@@ -29215,7 +29215,7 @@
       </c>
       <c r="I54" s="120">
         <f>T161</f>
-        <v>0</v>
+        <v>152895</v>
       </c>
       <c r="J54" s="121">
         <f>IF(H54=0,0,I54/H54)</f>
@@ -29224,7 +29224,7 @@
       <c r="K54" s="120"/>
       <c r="L54" s="122">
         <f>I54*G54</f>
-        <v>0</v>
+        <v>3057.9</v>
       </c>
       <c r="M54" s="108"/>
       <c r="N54" s="109"/>
@@ -29236,7 +29236,7 @@
       <c r="T54" s="110"/>
       <c r="U54" s="123">
         <f>L54</f>
-        <v>0</v>
+        <v>3057.9</v>
       </c>
       <c r="V54" s="113"/>
       <c r="W54" s="113"/>
@@ -29362,7 +29362,7 @@
       <c r="K56" s="68"/>
       <c r="L56" s="64">
         <f>SUM(L57:L60)</f>
-        <v>0</v>
+        <v>5246.3</v>
       </c>
       <c r="M56" s="65">
         <f>M57+M58</f>
@@ -29392,7 +29392,7 @@
       </c>
       <c r="U56" s="70">
         <f>SUM(U57:U60)</f>
-        <v>0</v>
+        <v>5246.3</v>
       </c>
       <c r="V56" s="71" t="e">
         <f>S56</f>
@@ -29553,7 +29553,7 @@
       </c>
       <c r="I58" s="105">
         <f>R159</f>
-        <v>0</v>
+        <v>379280</v>
       </c>
       <c r="J58" s="106">
         <f t="shared" si="5"/>
@@ -29562,7 +29562,7 @@
       <c r="K58" s="105"/>
       <c r="L58" s="107">
         <f>I58*G58</f>
-        <v>0</v>
+        <v>1896.4</v>
       </c>
       <c r="M58" s="108"/>
       <c r="N58" s="109"/>
@@ -29574,7 +29574,7 @@
       <c r="T58" s="110"/>
       <c r="U58" s="112">
         <f>L58</f>
-        <v>0</v>
+        <v>1896.4</v>
       </c>
       <c r="V58" s="113"/>
       <c r="W58" s="113"/>
@@ -29631,7 +29631,7 @@
       </c>
       <c r="I59" s="120">
         <f>T159</f>
-        <v>0</v>
+        <v>167495</v>
       </c>
       <c r="J59" s="121">
         <f t="shared" si="5"/>
@@ -29640,7 +29640,7 @@
       <c r="K59" s="120"/>
       <c r="L59" s="122">
         <f>I59*G59</f>
-        <v>0</v>
+        <v>3349.9</v>
       </c>
       <c r="M59" s="108"/>
       <c r="N59" s="109"/>
@@ -29652,7 +29652,7 @@
       <c r="T59" s="110"/>
       <c r="U59" s="123">
         <f>L59</f>
-        <v>0</v>
+        <v>3349.9</v>
       </c>
       <c r="V59" s="113"/>
       <c r="W59" s="113"/>
@@ -29777,7 +29777,7 @@
       <c r="K61" s="68"/>
       <c r="L61" s="64">
         <f>SUM(L62:L65)</f>
-        <v>0</v>
+        <v>221.18</v>
       </c>
       <c r="M61" s="65">
         <f>M62+M63</f>
@@ -29807,7 +29807,7 @@
       </c>
       <c r="U61" s="70">
         <f>SUM(U62:U65)</f>
-        <v>0</v>
+        <v>221.18</v>
       </c>
       <c r="V61" s="71">
         <f>S61</f>
@@ -29815,7 +29815,7 @@
       </c>
       <c r="W61" s="72">
         <f>IF(U61-V61&lt;0,0,U61-V61)</f>
-        <v>0</v>
+        <v>221.18</v>
       </c>
       <c r="X61" s="73">
         <f>SUM(X62:X65)</f>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="Y61" s="74">
         <f>W61+X61</f>
-        <v>0</v>
+        <v>221.18</v>
       </c>
       <c r="Z61" s="69">
         <f>T61+Y61</f>
-        <v>0</v>
+        <v>221.18</v>
       </c>
       <c r="AA61" s="75">
         <f>SUM(AA62:AA65)</f>
@@ -29835,7 +29835,7 @@
       </c>
       <c r="AB61" s="76">
         <f>Z61-AA61</f>
-        <v>0</v>
+        <v>221.18</v>
       </c>
       <c r="AC61" s="74"/>
       <c r="AD61" s="3"/>
@@ -29968,7 +29968,7 @@
       </c>
       <c r="I63" s="105">
         <f>R160</f>
-        <v>0</v>
+        <v>32488</v>
       </c>
       <c r="J63" s="106">
         <f>IF(H63=0,0,I63/H63)</f>
@@ -29977,7 +29977,7 @@
       <c r="K63" s="105"/>
       <c r="L63" s="107">
         <f>I63*G63</f>
-        <v>0</v>
+        <v>162.44</v>
       </c>
       <c r="M63" s="108"/>
       <c r="N63" s="109"/>
@@ -29989,7 +29989,7 @@
       <c r="T63" s="110"/>
       <c r="U63" s="112">
         <f>L63</f>
-        <v>0</v>
+        <v>162.44</v>
       </c>
       <c r="V63" s="113"/>
       <c r="W63" s="113"/>
@@ -30045,7 +30045,7 @@
       </c>
       <c r="I64" s="120">
         <f>T160</f>
-        <v>0</v>
+        <v>2937</v>
       </c>
       <c r="J64" s="121">
         <f>IF(H64=0,0,I64/H64)</f>
@@ -30054,7 +30054,7 @@
       <c r="K64" s="120"/>
       <c r="L64" s="122">
         <f>I64*G64</f>
-        <v>0</v>
+        <v>58.74</v>
       </c>
       <c r="M64" s="108"/>
       <c r="N64" s="109"/>
@@ -30066,7 +30066,7 @@
       <c r="T64" s="110"/>
       <c r="U64" s="123">
         <f>L64</f>
-        <v>0</v>
+        <v>58.74</v>
       </c>
       <c r="V64" s="113"/>
       <c r="W64" s="113"/>
@@ -30190,7 +30190,7 @@
       <c r="K66" s="62"/>
       <c r="L66" s="158">
         <f>SUM(L67:L70)</f>
-        <v>0</v>
+        <v>3692.6150000000002</v>
       </c>
       <c r="M66" s="65">
         <f>M71+M76+M81</f>
@@ -30217,7 +30217,7 @@
       </c>
       <c r="U66" s="70">
         <f>SUM(U67:U70)</f>
-        <v>0</v>
+        <v>3692.6150000000002</v>
       </c>
       <c r="V66" s="71" t="e">
         <f>V71+V76</f>
@@ -30368,7 +30368,7 @@
       </c>
       <c r="I68" s="105">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>130771</v>
       </c>
       <c r="J68" s="106">
         <f t="shared" si="5"/>
@@ -30377,7 +30377,7 @@
       <c r="K68" s="105"/>
       <c r="L68" s="107">
         <f>L73+L78+L83</f>
-        <v>0</v>
+        <v>653.85500000000002</v>
       </c>
       <c r="M68" s="108"/>
       <c r="N68" s="109"/>
@@ -30389,7 +30389,7 @@
       <c r="T68" s="110"/>
       <c r="U68" s="112">
         <f>U73+U78+U83</f>
-        <v>0</v>
+        <v>653.85500000000002</v>
       </c>
       <c r="V68" s="113"/>
       <c r="W68" s="113"/>
@@ -30442,7 +30442,7 @@
       </c>
       <c r="I69" s="120">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>151938</v>
       </c>
       <c r="J69" s="121">
         <f t="shared" si="5"/>
@@ -30451,7 +30451,7 @@
       <c r="K69" s="120"/>
       <c r="L69" s="122">
         <f>L74+L79+L84</f>
-        <v>0</v>
+        <v>3038.76</v>
       </c>
       <c r="M69" s="108"/>
       <c r="N69" s="109"/>
@@ -30463,7 +30463,7 @@
       <c r="T69" s="110"/>
       <c r="U69" s="123">
         <f>U74+U79+U84</f>
-        <v>0</v>
+        <v>3038.76</v>
       </c>
       <c r="V69" s="113"/>
       <c r="W69" s="113"/>
@@ -30981,7 +30981,7 @@
       <c r="K76" s="68"/>
       <c r="L76" s="64">
         <f>SUM(L77:L80)</f>
-        <v>0</v>
+        <v>3515.8150000000001</v>
       </c>
       <c r="M76" s="65">
         <f>M77+M78</f>
@@ -31011,7 +31011,7 @@
       </c>
       <c r="U76" s="70">
         <f>SUM(U77:U80)</f>
-        <v>0</v>
+        <v>3515.8150000000001</v>
       </c>
       <c r="V76" s="71" t="e">
         <f>S76</f>
@@ -31172,7 +31172,7 @@
       </c>
       <c r="I78" s="105">
         <f>R164</f>
-        <v>0</v>
+        <v>130771</v>
       </c>
       <c r="J78" s="106">
         <f t="shared" si="5"/>
@@ -31181,7 +31181,7 @@
       <c r="K78" s="105"/>
       <c r="L78" s="107">
         <f>I78*G78</f>
-        <v>0</v>
+        <v>653.85500000000002</v>
       </c>
       <c r="M78" s="108"/>
       <c r="N78" s="109"/>
@@ -31193,7 +31193,7 @@
       <c r="T78" s="110"/>
       <c r="U78" s="112">
         <f>L78</f>
-        <v>0</v>
+        <v>653.85500000000002</v>
       </c>
       <c r="V78" s="113"/>
       <c r="W78" s="113"/>
@@ -31250,7 +31250,7 @@
       </c>
       <c r="I79" s="120">
         <f>T164</f>
-        <v>0</v>
+        <v>143098</v>
       </c>
       <c r="J79" s="121">
         <f t="shared" si="5"/>
@@ -31259,7 +31259,7 @@
       <c r="K79" s="120"/>
       <c r="L79" s="122">
         <f>I79*G79</f>
-        <v>0</v>
+        <v>2861.96</v>
       </c>
       <c r="M79" s="108"/>
       <c r="N79" s="109"/>
@@ -31271,7 +31271,7 @@
       <c r="T79" s="110"/>
       <c r="U79" s="123">
         <f>L79</f>
-        <v>0</v>
+        <v>2861.96</v>
       </c>
       <c r="V79" s="113"/>
       <c r="W79" s="113"/>
@@ -31394,7 +31394,7 @@
       <c r="K81" s="68"/>
       <c r="L81" s="64">
         <f>SUM(L82:L85)</f>
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="M81" s="65">
         <f>M82+M83</f>
@@ -31424,7 +31424,7 @@
       </c>
       <c r="U81" s="70">
         <f>SUM(U82:U85)</f>
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="V81" s="71">
         <f>S81</f>
@@ -31432,7 +31432,7 @@
       </c>
       <c r="W81" s="72">
         <f>IF(U81-V81&lt;0,0,U81-V81)</f>
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="X81" s="73">
         <f>SUM(X82:X85)</f>
@@ -31440,11 +31440,11 @@
       </c>
       <c r="Y81" s="74">
         <f>W81+X81</f>
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="Z81" s="69">
         <f>T81+Y81</f>
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="AA81" s="75">
         <f>AA83-X83</f>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="AB81" s="76">
         <f>Z81-AA81</f>
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="AC81" s="74"/>
       <c r="AD81" s="3"/>
@@ -31663,7 +31663,7 @@
       </c>
       <c r="I84" s="120">
         <f>T167</f>
-        <v>0</v>
+        <v>8840</v>
       </c>
       <c r="J84" s="121">
         <f>IF(H84=0,0,I84/H84)</f>
@@ -31672,7 +31672,7 @@
       <c r="K84" s="120"/>
       <c r="L84" s="122">
         <f>I84*G84</f>
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="M84" s="108"/>
       <c r="N84" s="109"/>
@@ -31684,7 +31684,7 @@
       <c r="T84" s="110"/>
       <c r="U84" s="123">
         <f>L84</f>
-        <v>0</v>
+        <v>176.8</v>
       </c>
       <c r="V84" s="113"/>
       <c r="W84" s="113"/>
@@ -31986,7 +31986,7 @@
       </c>
       <c r="I88" s="105">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>253058</v>
       </c>
       <c r="J88" s="106">
         <f>IF(H88=0,0,I88/H88)</f>
@@ -31995,7 +31995,7 @@
       <c r="K88" s="105"/>
       <c r="L88" s="107">
         <f t="shared" si="9"/>
-        <v>-60000</v>
+        <v>-59806.85</v>
       </c>
       <c r="M88" s="108"/>
       <c r="N88" s="109"/>
@@ -32007,7 +32007,7 @@
       <c r="T88" s="110"/>
       <c r="U88" s="112">
         <f>U93+U98</f>
-        <v>-60000</v>
+        <v>-59806.85</v>
       </c>
       <c r="V88" s="113"/>
       <c r="W88" s="113"/>
@@ -32060,7 +32060,7 @@
       </c>
       <c r="I89" s="120">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1041962</v>
       </c>
       <c r="J89" s="121">
         <f>IF(H89=0,0,I89/H89)</f>
@@ -32069,7 +32069,7 @@
       <c r="K89" s="120"/>
       <c r="L89" s="122">
         <f t="shared" si="9"/>
-        <v>-57500</v>
+        <v>-43932.28</v>
       </c>
       <c r="M89" s="108"/>
       <c r="N89" s="109"/>
@@ -32081,7 +32081,7 @@
       <c r="T89" s="110"/>
       <c r="U89" s="123">
         <f>U94+U99</f>
-        <v>-57500</v>
+        <v>-43932.28</v>
       </c>
       <c r="V89" s="113"/>
       <c r="W89" s="113"/>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="I93" s="105">
         <f>R158</f>
-        <v>0</v>
+        <v>214428</v>
       </c>
       <c r="J93" s="106">
         <f>IF(H93=0,0,I93/H93)</f>
@@ -32473,7 +32473,7 @@
       </c>
       <c r="I94" s="120">
         <f>T158</f>
-        <v>0</v>
+        <v>363576</v>
       </c>
       <c r="J94" s="121">
         <f>IF(H94=0,0,I94/H94)</f>
@@ -32629,7 +32629,7 @@
       <c r="K96" s="68"/>
       <c r="L96" s="64">
         <f>SUM(L97:L100)</f>
-        <v>0</v>
+        <v>13760.87</v>
       </c>
       <c r="M96" s="65">
         <f>AB162</f>
@@ -32659,7 +32659,7 @@
       </c>
       <c r="U96" s="70">
         <f>SUM(U97:U100)</f>
-        <v>0</v>
+        <v>13760.87</v>
       </c>
       <c r="V96" s="71" t="e">
         <f>S96</f>
@@ -32817,7 +32817,7 @@
       </c>
       <c r="I98" s="105">
         <f>R162</f>
-        <v>0</v>
+        <v>38630</v>
       </c>
       <c r="J98" s="106">
         <f>IF(H98=0,0,I98/H98)</f>
@@ -32826,7 +32826,7 @@
       <c r="K98" s="105"/>
       <c r="L98" s="107">
         <f>I98*G98</f>
-        <v>0</v>
+        <v>193.15</v>
       </c>
       <c r="M98" s="108"/>
       <c r="N98" s="109"/>
@@ -32838,7 +32838,7 @@
       <c r="T98" s="110"/>
       <c r="U98" s="112">
         <f>L98</f>
-        <v>0</v>
+        <v>193.15</v>
       </c>
       <c r="V98" s="113"/>
       <c r="W98" s="113"/>
@@ -32895,7 +32895,7 @@
       </c>
       <c r="I99" s="120">
         <f>T162</f>
-        <v>0</v>
+        <v>678386</v>
       </c>
       <c r="J99" s="121">
         <f>IF(H99=0,0,I99/H99)</f>
@@ -32904,7 +32904,7 @@
       <c r="K99" s="120"/>
       <c r="L99" s="122">
         <f>I99*G99</f>
-        <v>0</v>
+        <v>13567.720000000001</v>
       </c>
       <c r="M99" s="108"/>
       <c r="N99" s="109"/>
@@ -32916,7 +32916,7 @@
       <c r="T99" s="110"/>
       <c r="U99" s="123">
         <f>L99</f>
-        <v>0</v>
+        <v>13567.720000000001</v>
       </c>
       <c r="V99" s="113"/>
       <c r="W99" s="113"/>
@@ -33045,7 +33045,7 @@
       <c r="K101" s="62"/>
       <c r="L101" s="158">
         <f>SUM(L102:L105)</f>
-        <v>0</v>
+        <v>5354.26</v>
       </c>
       <c r="M101" s="65">
         <f>M106+M111</f>
@@ -33072,7 +33072,7 @@
       </c>
       <c r="U101" s="70">
         <f>SUM(U102:U105)</f>
-        <v>0</v>
+        <v>5354.26</v>
       </c>
       <c r="V101" s="71">
         <f>V106+V111</f>
@@ -33080,7 +33080,7 @@
       </c>
       <c r="W101" s="72">
         <f>W106+W111</f>
-        <v>0</v>
+        <v>5354.26</v>
       </c>
       <c r="X101" s="71">
         <f>X106+X111</f>
@@ -33088,11 +33088,11 @@
       </c>
       <c r="Y101" s="74">
         <f>Y106+Y111</f>
-        <v>5000</v>
+        <v>10354.26</v>
       </c>
       <c r="Z101" s="69">
         <f>Z106+Z111</f>
-        <v>60000</v>
+        <v>65354.259999999995</v>
       </c>
       <c r="AA101" s="75">
         <f>SUM(AA102:AA105)</f>
@@ -33100,7 +33100,7 @@
       </c>
       <c r="AB101" s="76">
         <f>AB106+AB111</f>
-        <v>60000</v>
+        <v>65354.259999999995</v>
       </c>
       <c r="AC101" s="74"/>
       <c r="AD101" s="3"/>
@@ -33223,7 +33223,7 @@
       </c>
       <c r="I103" s="105">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>53472</v>
       </c>
       <c r="J103" s="106">
         <f>IF(H103=0,0,I103/H103)</f>
@@ -33232,7 +33232,7 @@
       <c r="K103" s="105"/>
       <c r="L103" s="107">
         <f>L108+L113</f>
-        <v>0</v>
+        <v>267.36</v>
       </c>
       <c r="M103" s="108"/>
       <c r="N103" s="109"/>
@@ -33244,7 +33244,7 @@
       <c r="T103" s="110"/>
       <c r="U103" s="112">
         <f>U108+U113</f>
-        <v>0</v>
+        <v>267.36</v>
       </c>
       <c r="V103" s="113"/>
       <c r="W103" s="113"/>
@@ -33297,7 +33297,7 @@
       </c>
       <c r="I104" s="120">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>254345</v>
       </c>
       <c r="J104" s="121">
         <f>IF(H104=0,0,I104/H104)</f>
@@ -33306,7 +33306,7 @@
       <c r="K104" s="120"/>
       <c r="L104" s="122">
         <f>L109+L114</f>
-        <v>0</v>
+        <v>5086.9000000000005</v>
       </c>
       <c r="M104" s="108"/>
       <c r="N104" s="109"/>
@@ -33318,7 +33318,7 @@
       <c r="T104" s="110"/>
       <c r="U104" s="123">
         <f>U109+U114</f>
-        <v>0</v>
+        <v>5086.9000000000005</v>
       </c>
       <c r="V104" s="113"/>
       <c r="W104" s="113"/>
@@ -33454,7 +33454,7 @@
       <c r="K106" s="68"/>
       <c r="L106" s="64">
         <f>SUM(L107:L110)</f>
-        <v>0</v>
+        <v>5244.585</v>
       </c>
       <c r="M106" s="65">
         <f>M107+M108</f>
@@ -33484,7 +33484,7 @@
       </c>
       <c r="U106" s="70">
         <f>SUM(U107:U110)</f>
-        <v>0</v>
+        <v>5244.585</v>
       </c>
       <c r="V106" s="71">
         <f>S106</f>
@@ -33492,7 +33492,7 @@
       </c>
       <c r="W106" s="72">
         <f>IF(U106-V106&lt;0,0,U106-V106)</f>
-        <v>0</v>
+        <v>5244.585</v>
       </c>
       <c r="X106" s="73">
         <f>SUM(X107:X110)</f>
@@ -33500,11 +33500,11 @@
       </c>
       <c r="Y106" s="74">
         <f>W106+X106</f>
-        <v>0</v>
+        <v>5244.585</v>
       </c>
       <c r="Z106" s="69">
         <f>T106+Y106</f>
-        <v>30000</v>
+        <v>35244.584999999999</v>
       </c>
       <c r="AA106" s="75">
         <f>SUM(AA107:AA110)</f>
@@ -33512,7 +33512,7 @@
       </c>
       <c r="AB106" s="76">
         <f>Z106-AA106</f>
-        <v>30000</v>
+        <v>35244.584999999999</v>
       </c>
       <c r="AC106" s="74"/>
       <c r="AD106" s="3"/>
@@ -33645,7 +33645,7 @@
       </c>
       <c r="I108" s="105">
         <f>R166</f>
-        <v>0</v>
+        <v>46197</v>
       </c>
       <c r="J108" s="106">
         <f>IF(H108=0,0,I108/H108)</f>
@@ -33654,7 +33654,7 @@
       <c r="K108" s="105"/>
       <c r="L108" s="107">
         <f>I108*G108</f>
-        <v>0</v>
+        <v>230.98500000000001</v>
       </c>
       <c r="M108" s="108"/>
       <c r="N108" s="109"/>
@@ -33666,7 +33666,7 @@
       <c r="T108" s="110"/>
       <c r="U108" s="112">
         <f>L108</f>
-        <v>0</v>
+        <v>230.98500000000001</v>
       </c>
       <c r="V108" s="113"/>
       <c r="W108" s="113"/>
@@ -33723,7 +33723,7 @@
       </c>
       <c r="I109" s="120">
         <f>T166</f>
-        <v>0</v>
+        <v>250680</v>
       </c>
       <c r="J109" s="121">
         <f>IF(H109=0,0,I109/H109)</f>
@@ -33732,7 +33732,7 @@
       <c r="K109" s="120"/>
       <c r="L109" s="122">
         <f>I109*G109</f>
-        <v>0</v>
+        <v>5013.6000000000004</v>
       </c>
       <c r="M109" s="108"/>
       <c r="N109" s="109"/>
@@ -33744,7 +33744,7 @@
       <c r="T109" s="110"/>
       <c r="U109" s="123">
         <f>L109</f>
-        <v>0</v>
+        <v>5013.6000000000004</v>
       </c>
       <c r="V109" s="113"/>
       <c r="W109" s="113"/>
@@ -33870,7 +33870,7 @@
       </c>
       <c r="I111" s="68">
         <f>SUM(I112:I115)</f>
-        <v>0</v>
+        <v>10940</v>
       </c>
       <c r="J111" s="168">
         <f>IF(H111=0,0,I111/H111)</f>
@@ -33882,7 +33882,7 @@
       </c>
       <c r="L111" s="64">
         <f>SUM(L112:L115)</f>
-        <v>0</v>
+        <v>109.675</v>
       </c>
       <c r="M111" s="65">
         <f>M112+M113</f>
@@ -33912,7 +33912,7 @@
       </c>
       <c r="U111" s="70">
         <f>SUM(U112:U115)</f>
-        <v>0</v>
+        <v>109.675</v>
       </c>
       <c r="V111" s="71">
         <f>S111</f>
@@ -33920,7 +33920,7 @@
       </c>
       <c r="W111" s="72">
         <f>U111-V111</f>
-        <v>0</v>
+        <v>109.675</v>
       </c>
       <c r="X111" s="73">
         <f>SUM(X112:X115)</f>
@@ -33928,11 +33928,11 @@
       </c>
       <c r="Y111" s="74">
         <f>W111+X111</f>
-        <v>5000</v>
+        <v>5109.6750000000002</v>
       </c>
       <c r="Z111" s="69">
         <f>T111+Y111</f>
-        <v>30000</v>
+        <v>30109.674999999999</v>
       </c>
       <c r="AA111" s="75">
         <f>SUM(AA112:AA115)</f>
@@ -33940,7 +33940,7 @@
       </c>
       <c r="AB111" s="76">
         <f>Z111-AA111</f>
-        <v>30000</v>
+        <v>30109.674999999999</v>
       </c>
       <c r="AC111" s="74"/>
       <c r="AD111" s="3"/>
@@ -34073,7 +34073,7 @@
       </c>
       <c r="I113" s="105">
         <f>R169</f>
-        <v>0</v>
+        <v>7275</v>
       </c>
       <c r="J113" s="106">
         <f t="shared" si="11"/>
@@ -34082,7 +34082,7 @@
       <c r="K113" s="105"/>
       <c r="L113" s="107">
         <f>I113*G113</f>
-        <v>0</v>
+        <v>36.375</v>
       </c>
       <c r="M113" s="108"/>
       <c r="N113" s="109"/>
@@ -34094,7 +34094,7 @@
       <c r="T113" s="110"/>
       <c r="U113" s="112">
         <f>L113</f>
-        <v>0</v>
+        <v>36.375</v>
       </c>
       <c r="V113" s="113"/>
       <c r="W113" s="113"/>
@@ -34151,7 +34151,7 @@
       </c>
       <c r="I114" s="120">
         <f>T169</f>
-        <v>0</v>
+        <v>3665</v>
       </c>
       <c r="J114" s="121">
         <f t="shared" si="11"/>
@@ -34160,7 +34160,7 @@
       <c r="K114" s="120"/>
       <c r="L114" s="122">
         <f>I114*G114</f>
-        <v>0</v>
+        <v>73.3</v>
       </c>
       <c r="M114" s="108"/>
       <c r="N114" s="109"/>
@@ -34172,7 +34172,7 @@
       <c r="T114" s="110"/>
       <c r="U114" s="123">
         <f>L114</f>
-        <v>0</v>
+        <v>73.3</v>
       </c>
       <c r="V114" s="113"/>
       <c r="W114" s="113"/>
@@ -36565,11 +36565,11 @@
       <c r="AZ145" s="77"/>
     </row>
     <row r="146" spans="1:52" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="351" t="s">
+      <c r="A146" s="344" t="s">
         <v>115</v>
       </c>
-      <c r="B146" s="352"/>
-      <c r="C146" s="353"/>
+      <c r="B146" s="345"/>
+      <c r="C146" s="346"/>
       <c r="D146" s="271"/>
       <c r="E146" s="272">
         <f>E11+E16+E101+E86+E66+E41+E21+E116+E141</f>
@@ -36684,9 +36684,9 @@
       <c r="AZ146" s="3"/>
     </row>
     <row r="147" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="354"/>
-      <c r="B147" s="354"/>
-      <c r="C147" s="354"/>
+      <c r="A147" s="347"/>
+      <c r="B147" s="347"/>
+      <c r="C147" s="347"/>
       <c r="D147" s="282"/>
       <c r="E147" s="283"/>
       <c r="F147" s="284"/>
@@ -37025,27 +37025,27 @@
     <row r="155" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="302"/>
       <c r="B155" s="302"/>
-      <c r="C155" s="332" t="s">
+      <c r="C155" s="360" t="s">
         <v>116</v>
       </c>
-      <c r="D155" s="334" t="s">
+      <c r="D155" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="E155" s="335"/>
-      <c r="F155" s="336" t="s">
+      <c r="E155" s="363"/>
+      <c r="F155" s="332" t="s">
         <v>117</v>
       </c>
-      <c r="G155" s="337"/>
-      <c r="H155" s="337"/>
-      <c r="I155" s="338"/>
-      <c r="J155" s="339" t="s">
+      <c r="G155" s="364"/>
+      <c r="H155" s="364"/>
+      <c r="I155" s="333"/>
+      <c r="J155" s="365" t="s">
         <v>118</v>
       </c>
-      <c r="K155" s="340"/>
-      <c r="L155" s="341" t="s">
+      <c r="K155" s="366"/>
+      <c r="L155" s="334" t="s">
         <v>119</v>
       </c>
-      <c r="M155" s="342"/>
+      <c r="M155" s="335"/>
       <c r="N155" s="303" t="s">
         <v>120</v>
       </c>
@@ -37055,22 +37055,22 @@
       <c r="P155" s="304" t="s">
         <v>122</v>
       </c>
-      <c r="Q155" s="336" t="s">
+      <c r="Q155" s="332" t="s">
         <v>123</v>
       </c>
-      <c r="R155" s="338"/>
-      <c r="S155" s="341" t="s">
+      <c r="R155" s="333"/>
+      <c r="S155" s="334" t="s">
         <v>124</v>
       </c>
-      <c r="T155" s="342"/>
-      <c r="U155" s="341" t="s">
+      <c r="T155" s="335"/>
+      <c r="U155" s="334" t="s">
         <v>125</v>
       </c>
-      <c r="V155" s="342"/>
-      <c r="W155" s="341" t="s">
+      <c r="V155" s="335"/>
+      <c r="W155" s="334" t="s">
         <v>126</v>
       </c>
-      <c r="X155" s="342"/>
+      <c r="X155" s="335"/>
       <c r="Y155" s="303" t="s">
         <v>127</v>
       </c>
@@ -37083,10 +37083,10 @@
       <c r="AB155" s="306" t="s">
         <v>130</v>
       </c>
-      <c r="AC155" s="341" t="s">
+      <c r="AC155" s="334" t="s">
         <v>131</v>
       </c>
-      <c r="AD155" s="342"/>
+      <c r="AD155" s="335"/>
       <c r="AE155" s="302"/>
       <c r="AF155" s="302"/>
       <c r="AG155" s="302"/>
@@ -37113,7 +37113,7 @@
     <row r="156" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="302"/>
       <c r="B156" s="302"/>
-      <c r="C156" s="333"/>
+      <c r="C156" s="361"/>
       <c r="D156" s="307" t="s">
         <v>132</v>
       </c>
@@ -37240,9 +37240,13 @@
       <c r="O157" s="317"/>
       <c r="P157" s="317"/>
       <c r="Q157" s="317"/>
-      <c r="R157" s="317"/>
+      <c r="R157" s="317">
+        <v>78903</v>
+      </c>
       <c r="S157" s="317"/>
-      <c r="T157" s="317"/>
+      <c r="T157" s="317">
+        <v>0</v>
+      </c>
       <c r="U157" s="317"/>
       <c r="V157" s="317"/>
       <c r="W157" s="317"/>
@@ -37302,9 +37306,13 @@
       <c r="O158" s="317"/>
       <c r="P158" s="317"/>
       <c r="Q158" s="317"/>
-      <c r="R158" s="317"/>
+      <c r="R158" s="317">
+        <v>214428</v>
+      </c>
       <c r="S158" s="317"/>
-      <c r="T158" s="317"/>
+      <c r="T158" s="317">
+        <v>363576</v>
+      </c>
       <c r="U158" s="317"/>
       <c r="V158" s="317"/>
       <c r="W158" s="317"/>
@@ -37364,9 +37372,13 @@
       <c r="O159" s="317"/>
       <c r="P159" s="317"/>
       <c r="Q159" s="317"/>
-      <c r="R159" s="317"/>
+      <c r="R159" s="317">
+        <v>379280</v>
+      </c>
       <c r="S159" s="317"/>
-      <c r="T159" s="317"/>
+      <c r="T159" s="317">
+        <v>167495</v>
+      </c>
       <c r="U159" s="317"/>
       <c r="V159" s="317"/>
       <c r="W159" s="317"/>
@@ -37426,9 +37438,13 @@
       <c r="O160" s="317"/>
       <c r="P160" s="317"/>
       <c r="Q160" s="317"/>
-      <c r="R160" s="317"/>
+      <c r="R160" s="317">
+        <v>32488</v>
+      </c>
       <c r="S160" s="317"/>
-      <c r="T160" s="317"/>
+      <c r="T160" s="317">
+        <v>2937</v>
+      </c>
       <c r="U160" s="317"/>
       <c r="V160" s="317"/>
       <c r="W160" s="317"/>
@@ -37488,9 +37504,13 @@
       <c r="O161" s="317"/>
       <c r="P161" s="317"/>
       <c r="Q161" s="317"/>
-      <c r="R161" s="317"/>
+      <c r="R161" s="317">
+        <v>117388</v>
+      </c>
       <c r="S161" s="317"/>
-      <c r="T161" s="317"/>
+      <c r="T161" s="317">
+        <v>152895</v>
+      </c>
       <c r="U161" s="317"/>
       <c r="V161" s="317"/>
       <c r="W161" s="317"/>
@@ -37550,9 +37570,13 @@
       <c r="O162" s="317"/>
       <c r="P162" s="317"/>
       <c r="Q162" s="317"/>
-      <c r="R162" s="317"/>
+      <c r="R162" s="317">
+        <v>38630</v>
+      </c>
       <c r="S162" s="317"/>
-      <c r="T162" s="317"/>
+      <c r="T162" s="317">
+        <v>678386</v>
+      </c>
       <c r="U162" s="317"/>
       <c r="V162" s="317"/>
       <c r="W162" s="317"/>
@@ -37612,9 +37636,13 @@
       <c r="O163" s="317"/>
       <c r="P163" s="317"/>
       <c r="Q163" s="317"/>
-      <c r="R163" s="317"/>
+      <c r="R163" s="317">
+        <v>545</v>
+      </c>
       <c r="S163" s="317"/>
-      <c r="T163" s="317"/>
+      <c r="T163" s="317">
+        <v>3465</v>
+      </c>
       <c r="U163" s="317"/>
       <c r="V163" s="317"/>
       <c r="W163" s="317"/>
@@ -37674,9 +37702,13 @@
       <c r="O164" s="317"/>
       <c r="P164" s="317"/>
       <c r="Q164" s="317"/>
-      <c r="R164" s="317"/>
+      <c r="R164" s="317">
+        <v>130771</v>
+      </c>
       <c r="S164" s="317"/>
-      <c r="T164" s="317"/>
+      <c r="T164" s="317">
+        <v>143098</v>
+      </c>
       <c r="U164" s="317"/>
       <c r="V164" s="317"/>
       <c r="W164" s="317"/>
@@ -37736,9 +37768,13 @@
       <c r="O165" s="317"/>
       <c r="P165" s="317"/>
       <c r="Q165" s="317"/>
-      <c r="R165" s="317"/>
+      <c r="R165" s="317">
+        <v>19266</v>
+      </c>
       <c r="S165" s="317"/>
-      <c r="T165" s="317"/>
+      <c r="T165" s="317">
+        <v>425861</v>
+      </c>
       <c r="U165" s="317"/>
       <c r="V165" s="317"/>
       <c r="W165" s="317"/>
@@ -37798,9 +37834,13 @@
       <c r="O166" s="317"/>
       <c r="P166" s="317"/>
       <c r="Q166" s="317"/>
-      <c r="R166" s="317"/>
+      <c r="R166" s="317">
+        <v>46197</v>
+      </c>
       <c r="S166" s="317"/>
-      <c r="T166" s="317"/>
+      <c r="T166" s="317">
+        <v>250680</v>
+      </c>
       <c r="U166" s="317"/>
       <c r="V166" s="317"/>
       <c r="W166" s="317"/>
@@ -37860,9 +37900,13 @@
       <c r="O167" s="317"/>
       <c r="P167" s="317"/>
       <c r="Q167" s="317"/>
-      <c r="R167" s="317"/>
+      <c r="R167" s="317">
+        <v>0</v>
+      </c>
       <c r="S167" s="317"/>
-      <c r="T167" s="317"/>
+      <c r="T167" s="317">
+        <v>8840</v>
+      </c>
       <c r="U167" s="317"/>
       <c r="V167" s="317"/>
       <c r="W167" s="317"/>
@@ -37922,9 +37966,13 @@
       <c r="O168" s="317"/>
       <c r="P168" s="317"/>
       <c r="Q168" s="317"/>
-      <c r="R168" s="317"/>
+      <c r="R168" s="317">
+        <v>11278</v>
+      </c>
       <c r="S168" s="317"/>
-      <c r="T168" s="317"/>
+      <c r="T168" s="317">
+        <v>1974</v>
+      </c>
       <c r="U168" s="317"/>
       <c r="V168" s="317"/>
       <c r="W168" s="317"/>
@@ -37984,9 +38032,13 @@
       <c r="O169" s="317"/>
       <c r="P169" s="317"/>
       <c r="Q169" s="317"/>
-      <c r="R169" s="317"/>
+      <c r="R169" s="317">
+        <v>7275</v>
+      </c>
       <c r="S169" s="317"/>
-      <c r="T169" s="317"/>
+      <c r="T169" s="317">
+        <v>3665</v>
+      </c>
       <c r="U169" s="317"/>
       <c r="V169" s="317"/>
       <c r="W169" s="317"/>
@@ -38084,7 +38136,7 @@
       </c>
       <c r="R170" s="327">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1076449</v>
       </c>
       <c r="S170" s="324">
         <f t="shared" si="17"/>
@@ -38092,7 +38144,7 @@
       </c>
       <c r="T170" s="327">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2202872</v>
       </c>
       <c r="U170" s="328">
         <f t="shared" si="17"/>
@@ -38159,11 +38211,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AC155:AD155"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M155"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="M9:S9"/>
@@ -38175,11 +38227,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AC155:AD155"/>
   </mergeCells>
   <conditionalFormatting sqref="H157:H169">
     <cfRule type="top10" dxfId="2164" priority="2164" bottom="1" rank="1"/>

--- a/Files/Р.xlsx
+++ b/Files/Р.xlsx
@@ -2732,10 +2732,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="48" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="173" fontId="48" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="173" fontId="48" fillId="13" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="173" fontId="48" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="49" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="49" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="173" fontId="50" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,27 +2858,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="48" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="48" fillId="13" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="49" fillId="13" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="49" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -24781,7 +24781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -25493,43 +25493,43 @@
       <c r="AZ8" s="3"/>
     </row>
     <row r="9" spans="1:52" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="348" t="s">
+      <c r="A9" s="355" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="350" t="s">
+      <c r="B9" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="352" t="s">
+      <c r="C9" s="359" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="354" t="s">
+      <c r="D9" s="361" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="356" t="s">
+      <c r="E9" s="363" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="358" t="s">
+      <c r="F9" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="336" t="s">
+      <c r="G9" s="343" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="338" t="s">
+      <c r="H9" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="339"/>
-      <c r="J9" s="339"/>
-      <c r="K9" s="339"/>
-      <c r="L9" s="340"/>
-      <c r="M9" s="341" t="s">
+      <c r="I9" s="346"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="346"/>
+      <c r="L9" s="347"/>
+      <c r="M9" s="348" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="342"/>
-      <c r="O9" s="342"/>
-      <c r="P9" s="342"/>
-      <c r="Q9" s="342"/>
-      <c r="R9" s="342"/>
-      <c r="S9" s="343"/>
+      <c r="N9" s="349"/>
+      <c r="O9" s="349"/>
+      <c r="P9" s="349"/>
+      <c r="Q9" s="349"/>
+      <c r="R9" s="349"/>
+      <c r="S9" s="350"/>
       <c r="T9" s="33" t="s">
         <v>15</v>
       </c>
@@ -25567,13 +25567,13 @@
       <c r="AZ9" s="36"/>
     </row>
     <row r="10" spans="1:52" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="349"/>
-      <c r="B10" s="351"/>
-      <c r="C10" s="353"/>
-      <c r="D10" s="355"/>
-      <c r="E10" s="357"/>
-      <c r="F10" s="359"/>
-      <c r="G10" s="337"/>
+      <c r="A10" s="356"/>
+      <c r="B10" s="358"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="364"/>
+      <c r="F10" s="366"/>
+      <c r="G10" s="344"/>
       <c r="H10" s="37" t="s">
         <v>16</v>
       </c>
@@ -25689,7 +25689,7 @@
       <c r="K11" s="62"/>
       <c r="L11" s="64">
         <f>SUM(L12:L15)</f>
-        <v>9887.9370000000017</v>
+        <v>0</v>
       </c>
       <c r="M11" s="65">
         <f>SUM(M21,M41,M66,M86,M101)</f>
@@ -25724,7 +25724,7 @@
       </c>
       <c r="U11" s="70">
         <f>SUM(U12:U15)</f>
-        <v>9887.9370000000017</v>
+        <v>0</v>
       </c>
       <c r="V11" s="71" t="e">
         <f>S11</f>
@@ -25876,7 +25876,7 @@
       </c>
       <c r="I13" s="105">
         <f t="shared" si="2"/>
-        <v>1076449</v>
+        <v>0</v>
       </c>
       <c r="J13" s="106">
         <f t="shared" si="3"/>
@@ -25885,7 +25885,7 @@
       <c r="K13" s="105"/>
       <c r="L13" s="107">
         <f>I13*G13/5</f>
-        <v>1076.4490000000001</v>
+        <v>0</v>
       </c>
       <c r="M13" s="108"/>
       <c r="N13" s="109"/>
@@ -25897,7 +25897,7 @@
       <c r="T13" s="110"/>
       <c r="U13" s="112">
         <f>L13</f>
-        <v>1076.4490000000001</v>
+        <v>0</v>
       </c>
       <c r="V13" s="113"/>
       <c r="W13" s="113"/>
@@ -25949,7 +25949,7 @@
       </c>
       <c r="I14" s="120">
         <f t="shared" si="2"/>
-        <v>2202872</v>
+        <v>0</v>
       </c>
       <c r="J14" s="121">
         <f t="shared" si="3"/>
@@ -25958,7 +25958,7 @@
       <c r="K14" s="120"/>
       <c r="L14" s="122">
         <f>I14*G14/5</f>
-        <v>8811.4880000000012</v>
+        <v>0</v>
       </c>
       <c r="M14" s="108"/>
       <c r="N14" s="109"/>
@@ -25970,7 +25970,7 @@
       <c r="T14" s="110"/>
       <c r="U14" s="123">
         <f>L14</f>
-        <v>8811.4880000000012</v>
+        <v>0</v>
       </c>
       <c r="V14" s="113"/>
       <c r="W14" s="113"/>
@@ -26456,7 +26456,7 @@
       <c r="K21" s="62"/>
       <c r="L21" s="158">
         <f>SUM(L22:L25)</f>
-        <v>8781.4449999999979</v>
+        <v>0</v>
       </c>
       <c r="M21" s="65">
         <f>M26+M31+M36</f>
@@ -26486,7 +26486,7 @@
       </c>
       <c r="U21" s="70">
         <f>SUM(U22:U25)</f>
-        <v>8781.4449999999979</v>
+        <v>0</v>
       </c>
       <c r="V21" s="71" t="e">
         <f>V26+V31+V36</f>
@@ -26637,7 +26637,7 @@
       </c>
       <c r="I23" s="105">
         <f t="shared" si="4"/>
-        <v>31089</v>
+        <v>0</v>
       </c>
       <c r="J23" s="106">
         <f t="shared" si="3"/>
@@ -26646,7 +26646,7 @@
       <c r="K23" s="105"/>
       <c r="L23" s="107">
         <f>L28+L33+L38</f>
-        <v>155.44499999999999</v>
+        <v>0</v>
       </c>
       <c r="M23" s="108"/>
       <c r="N23" s="109"/>
@@ -26658,7 +26658,7 @@
       <c r="T23" s="110"/>
       <c r="U23" s="112">
         <f>U28+U33+U38</f>
-        <v>155.44499999999999</v>
+        <v>0</v>
       </c>
       <c r="V23" s="113"/>
       <c r="W23" s="113"/>
@@ -26711,7 +26711,7 @@
       </c>
       <c r="I24" s="120">
         <f t="shared" si="4"/>
-        <v>431300</v>
+        <v>0</v>
       </c>
       <c r="J24" s="121">
         <f t="shared" si="3"/>
@@ -26720,7 +26720,7 @@
       <c r="K24" s="120"/>
       <c r="L24" s="122">
         <f>L29+L34+L39</f>
-        <v>8625.9999999999982</v>
+        <v>0</v>
       </c>
       <c r="M24" s="108"/>
       <c r="N24" s="109"/>
@@ -26732,7 +26732,7 @@
       <c r="T24" s="110"/>
       <c r="U24" s="123">
         <f>U29+U34+U39</f>
-        <v>8625.9999999999982</v>
+        <v>0</v>
       </c>
       <c r="V24" s="113"/>
       <c r="W24" s="113"/>
@@ -26868,7 +26868,7 @@
       <c r="K26" s="68"/>
       <c r="L26" s="64">
         <f>SUM(L27:L30)</f>
-        <v>72.024999999999991</v>
+        <v>0</v>
       </c>
       <c r="M26" s="65">
         <f>M27+M28</f>
@@ -26897,7 +26897,7 @@
       </c>
       <c r="U26" s="70">
         <f>SUM(U27:U30)</f>
-        <v>72.024999999999991</v>
+        <v>0</v>
       </c>
       <c r="V26" s="71">
         <f>S26</f>
@@ -26905,7 +26905,7 @@
       </c>
       <c r="W26" s="72">
         <f>IF(U26-V26&lt;0,0,U26-V26)</f>
-        <v>72.024999999999991</v>
+        <v>0</v>
       </c>
       <c r="X26" s="73">
         <f>SUM(X27:X30)</f>
@@ -26913,11 +26913,11 @@
       </c>
       <c r="Y26" s="74">
         <f>W26+X26</f>
-        <v>72.024999999999991</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="69">
         <f>T26+Y26</f>
-        <v>30972.025000000001</v>
+        <v>30900</v>
       </c>
       <c r="AA26" s="75">
         <f>SUM(AA27:AA30)</f>
@@ -26925,7 +26925,7 @@
       </c>
       <c r="AB26" s="76">
         <f>Z26-AA26</f>
-        <v>30972.025000000001</v>
+        <v>30900</v>
       </c>
       <c r="AC26" s="74"/>
       <c r="AD26" s="3"/>
@@ -27058,7 +27058,7 @@
       </c>
       <c r="I28" s="105">
         <f>R163</f>
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="J28" s="106">
         <f t="shared" si="5"/>
@@ -27067,7 +27067,7 @@
       <c r="K28" s="105"/>
       <c r="L28" s="107">
         <f>I28*G28</f>
-        <v>2.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="M28" s="108"/>
       <c r="N28" s="109"/>
@@ -27079,7 +27079,7 @@
       <c r="T28" s="110"/>
       <c r="U28" s="112">
         <f>L28</f>
-        <v>2.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="V28" s="113"/>
       <c r="W28" s="113"/>
@@ -27136,7 +27136,7 @@
       </c>
       <c r="I29" s="120">
         <f>T163</f>
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="J29" s="121">
         <f t="shared" si="5"/>
@@ -27145,7 +27145,7 @@
       <c r="K29" s="120"/>
       <c r="L29" s="122">
         <f>I29*G29</f>
-        <v>69.3</v>
+        <v>0</v>
       </c>
       <c r="M29" s="108"/>
       <c r="N29" s="109"/>
@@ -27157,7 +27157,7 @@
       <c r="T29" s="110"/>
       <c r="U29" s="123">
         <f>L29</f>
-        <v>69.3</v>
+        <v>0</v>
       </c>
       <c r="V29" s="113"/>
       <c r="W29" s="113"/>
@@ -27283,7 +27283,7 @@
       <c r="K31" s="68"/>
       <c r="L31" s="64">
         <f>SUM(L32:L35)</f>
-        <v>8613.5499999999993</v>
+        <v>0</v>
       </c>
       <c r="M31" s="65">
         <f>M32+M33</f>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="U31" s="70">
         <f>SUM(U32:U35)</f>
-        <v>8613.5499999999993</v>
+        <v>0</v>
       </c>
       <c r="V31" s="71" t="e">
         <f>S31</f>
@@ -27474,7 +27474,7 @@
       </c>
       <c r="I33" s="105">
         <f>R165</f>
-        <v>19266</v>
+        <v>0</v>
       </c>
       <c r="J33" s="106">
         <f>IF(H33=0,0,I33/H33)</f>
@@ -27483,7 +27483,7 @@
       <c r="K33" s="105"/>
       <c r="L33" s="107">
         <f>I33*G33</f>
-        <v>96.33</v>
+        <v>0</v>
       </c>
       <c r="M33" s="108"/>
       <c r="N33" s="109"/>
@@ -27495,7 +27495,7 @@
       <c r="T33" s="110"/>
       <c r="U33" s="112">
         <f>L33</f>
-        <v>96.33</v>
+        <v>0</v>
       </c>
       <c r="V33" s="113"/>
       <c r="W33" s="113"/>
@@ -27552,7 +27552,7 @@
       </c>
       <c r="I34" s="120">
         <f>T165</f>
-        <v>425861</v>
+        <v>0</v>
       </c>
       <c r="J34" s="121">
         <f t="shared" si="5"/>
@@ -27561,7 +27561,7 @@
       <c r="K34" s="120"/>
       <c r="L34" s="122">
         <f>I34*G34</f>
-        <v>8517.2199999999993</v>
+        <v>0</v>
       </c>
       <c r="M34" s="108"/>
       <c r="N34" s="109"/>
@@ -27573,7 +27573,7 @@
       <c r="T34" s="110"/>
       <c r="U34" s="123">
         <f>L34</f>
-        <v>8517.2199999999993</v>
+        <v>0</v>
       </c>
       <c r="V34" s="113"/>
       <c r="W34" s="113"/>
@@ -27703,7 +27703,7 @@
       <c r="K36" s="68"/>
       <c r="L36" s="64">
         <f>SUM(L37:L40)</f>
-        <v>95.87</v>
+        <v>0</v>
       </c>
       <c r="M36" s="65">
         <f>M37+M38</f>
@@ -27733,7 +27733,7 @@
       </c>
       <c r="U36" s="70">
         <f>SUM(U37:U40)</f>
-        <v>95.87</v>
+        <v>0</v>
       </c>
       <c r="V36" s="71">
         <f>S36</f>
@@ -27741,7 +27741,7 @@
       </c>
       <c r="W36" s="72">
         <f>IF(U36-V36&lt;0,0,U36-V36)</f>
-        <v>95.87</v>
+        <v>0</v>
       </c>
       <c r="X36" s="73">
         <f>SUM(X37:X40)</f>
@@ -27749,11 +27749,11 @@
       </c>
       <c r="Y36" s="74">
         <f>W36+X36</f>
-        <v>5095.87</v>
+        <v>5000</v>
       </c>
       <c r="Z36" s="69">
         <f>T36+Y36</f>
-        <v>30095.87</v>
+        <v>30000</v>
       </c>
       <c r="AA36" s="75">
         <f>SUM(AA37:AA40)</f>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="AB36" s="76">
         <f>Z36-AA36</f>
-        <v>30095.87</v>
+        <v>30000</v>
       </c>
       <c r="AC36" s="74"/>
       <c r="AD36" s="3"/>
@@ -27894,7 +27894,7 @@
       </c>
       <c r="I38" s="105">
         <f>R168</f>
-        <v>11278</v>
+        <v>0</v>
       </c>
       <c r="J38" s="106">
         <f>IF(H38=0,0,I38/H38)</f>
@@ -27903,7 +27903,7 @@
       <c r="K38" s="105"/>
       <c r="L38" s="107">
         <f>I38*G38</f>
-        <v>56.39</v>
+        <v>0</v>
       </c>
       <c r="M38" s="108"/>
       <c r="N38" s="109"/>
@@ -27915,7 +27915,7 @@
       <c r="T38" s="110"/>
       <c r="U38" s="112">
         <f>L38</f>
-        <v>56.39</v>
+        <v>0</v>
       </c>
       <c r="V38" s="113"/>
       <c r="W38" s="113"/>
@@ -27972,7 +27972,7 @@
       </c>
       <c r="I39" s="120">
         <f>T168</f>
-        <v>1974</v>
+        <v>0</v>
       </c>
       <c r="J39" s="121">
         <f>IF(H39=0,0,I39/H39)</f>
@@ -27981,7 +27981,7 @@
       <c r="K39" s="120"/>
       <c r="L39" s="122">
         <f>I39*G39</f>
-        <v>39.480000000000004</v>
+        <v>0</v>
       </c>
       <c r="M39" s="108"/>
       <c r="N39" s="109"/>
@@ -27993,7 +27993,7 @@
       <c r="T39" s="110"/>
       <c r="U39" s="123">
         <f>L39</f>
-        <v>39.480000000000004</v>
+        <v>0</v>
       </c>
       <c r="V39" s="113"/>
       <c r="W39" s="113"/>
@@ -28121,7 +28121,7 @@
       <c r="K41" s="62"/>
       <c r="L41" s="158">
         <f>SUM(L42:L45)</f>
-        <v>13151.748333333333</v>
+        <v>0</v>
       </c>
       <c r="M41" s="65">
         <f>M46+M56+M61+M51</f>
@@ -28148,7 +28148,7 @@
       </c>
       <c r="U41" s="70">
         <f>SUM(U42:U45)</f>
-        <v>13151.748333333333</v>
+        <v>0</v>
       </c>
       <c r="V41" s="67" t="e">
         <f>V46+V56+V61+V51</f>
@@ -28299,7 +28299,7 @@
       </c>
       <c r="I43" s="105">
         <f t="shared" si="6"/>
-        <v>608059</v>
+        <v>0</v>
       </c>
       <c r="J43" s="106">
         <f t="shared" si="5"/>
@@ -28308,7 +28308,7 @@
       <c r="K43" s="105"/>
       <c r="L43" s="107">
         <f>L48+L58+L63+L53</f>
-        <v>4020.0450000000001</v>
+        <v>0</v>
       </c>
       <c r="M43" s="108"/>
       <c r="N43" s="109"/>
@@ -28320,7 +28320,7 @@
       <c r="T43" s="110"/>
       <c r="U43" s="112">
         <f>U48+U58+U63+U53</f>
-        <v>4020.0450000000001</v>
+        <v>0</v>
       </c>
       <c r="V43" s="113"/>
       <c r="W43" s="113"/>
@@ -28373,7 +28373,7 @@
       </c>
       <c r="I44" s="120">
         <f t="shared" si="6"/>
-        <v>323327</v>
+        <v>0</v>
       </c>
       <c r="J44" s="121">
         <f t="shared" si="5"/>
@@ -28382,7 +28382,7 @@
       <c r="K44" s="120"/>
       <c r="L44" s="122">
         <f>L49+L59+L64+L54</f>
-        <v>9131.7033333333329</v>
+        <v>0</v>
       </c>
       <c r="M44" s="108"/>
       <c r="N44" s="109"/>
@@ -28394,7 +28394,7 @@
       <c r="T44" s="110"/>
       <c r="U44" s="123">
         <f>U49+U59+U64+U54</f>
-        <v>9131.7033333333329</v>
+        <v>0</v>
       </c>
       <c r="V44" s="113"/>
       <c r="W44" s="113"/>
@@ -28530,7 +28530,7 @@
       <c r="K46" s="68"/>
       <c r="L46" s="64">
         <f>SUM(L47:L50)</f>
-        <v>4039.4283333333333</v>
+        <v>0</v>
       </c>
       <c r="M46" s="65">
         <f>M47+M48</f>
@@ -28560,7 +28560,7 @@
       </c>
       <c r="U46" s="70">
         <f>SUM(U47:U50)</f>
-        <v>4039.4283333333333</v>
+        <v>0</v>
       </c>
       <c r="V46" s="71" t="e">
         <f>S46</f>
@@ -28721,7 +28721,7 @@
       </c>
       <c r="I48" s="105">
         <f>R157</f>
-        <v>78903</v>
+        <v>0</v>
       </c>
       <c r="J48" s="106">
         <f t="shared" si="5"/>
@@ -28730,7 +28730,7 @@
       <c r="K48" s="105"/>
       <c r="L48" s="107">
         <f>I48*G48+L53/2+L58/3+L63/3</f>
-        <v>1374.2650000000001</v>
+        <v>0</v>
       </c>
       <c r="M48" s="108"/>
       <c r="N48" s="109"/>
@@ -28742,7 +28742,7 @@
       <c r="T48" s="110"/>
       <c r="U48" s="112">
         <f>L48</f>
-        <v>1374.2650000000001</v>
+        <v>0</v>
       </c>
       <c r="V48" s="113"/>
       <c r="W48" s="113"/>
@@ -28808,7 +28808,7 @@
       <c r="K49" s="120"/>
       <c r="L49" s="122">
         <f>I49*G49+L54/2+L59/3+L64/3</f>
-        <v>2665.1633333333334</v>
+        <v>0</v>
       </c>
       <c r="M49" s="108"/>
       <c r="N49" s="109"/>
@@ -28820,7 +28820,7 @@
       <c r="T49" s="110"/>
       <c r="U49" s="123">
         <f>L49</f>
-        <v>2665.1633333333334</v>
+        <v>0</v>
       </c>
       <c r="V49" s="113"/>
       <c r="W49" s="113"/>
@@ -28946,7 +28946,7 @@
       <c r="K51" s="68"/>
       <c r="L51" s="64">
         <f>SUM(L52:L55)</f>
-        <v>3644.84</v>
+        <v>0</v>
       </c>
       <c r="M51" s="65">
         <f>M52+M53</f>
@@ -28976,7 +28976,7 @@
       </c>
       <c r="U51" s="70">
         <f>SUM(U52:U55)</f>
-        <v>3644.84</v>
+        <v>0</v>
       </c>
       <c r="V51" s="71">
         <f>S51</f>
@@ -28984,7 +28984,7 @@
       </c>
       <c r="W51" s="72">
         <f>IF(U51-V51&lt;0,0,U51-V51)</f>
-        <v>3644.84</v>
+        <v>0</v>
       </c>
       <c r="X51" s="73">
         <f>SUM(X52:X55)</f>
@@ -28992,11 +28992,11 @@
       </c>
       <c r="Y51" s="74">
         <f>W51+X51</f>
-        <v>3644.84</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="69">
         <f>T51+Y51</f>
-        <v>28644.84</v>
+        <v>25000</v>
       </c>
       <c r="AA51" s="75">
         <f>SUM(AA52:AA55)</f>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="AB51" s="76">
         <f>Z51-AA51</f>
-        <v>28644.84</v>
+        <v>25000</v>
       </c>
       <c r="AC51" s="74"/>
       <c r="AD51" s="3"/>
@@ -29137,7 +29137,7 @@
       </c>
       <c r="I53" s="105">
         <f>R161</f>
-        <v>117388</v>
+        <v>0</v>
       </c>
       <c r="J53" s="106">
         <f>IF(H53=0,0,I53/H53)</f>
@@ -29146,7 +29146,7 @@
       <c r="K53" s="105"/>
       <c r="L53" s="107">
         <f>I53*G53</f>
-        <v>586.94000000000005</v>
+        <v>0</v>
       </c>
       <c r="M53" s="108"/>
       <c r="N53" s="109"/>
@@ -29158,7 +29158,7 @@
       <c r="T53" s="110"/>
       <c r="U53" s="112">
         <f>L53</f>
-        <v>586.94000000000005</v>
+        <v>0</v>
       </c>
       <c r="V53" s="113"/>
       <c r="W53" s="113"/>
@@ -29215,7 +29215,7 @@
       </c>
       <c r="I54" s="120">
         <f>T161</f>
-        <v>152895</v>
+        <v>0</v>
       </c>
       <c r="J54" s="121">
         <f>IF(H54=0,0,I54/H54)</f>
@@ -29224,7 +29224,7 @@
       <c r="K54" s="120"/>
       <c r="L54" s="122">
         <f>I54*G54</f>
-        <v>3057.9</v>
+        <v>0</v>
       </c>
       <c r="M54" s="108"/>
       <c r="N54" s="109"/>
@@ -29236,7 +29236,7 @@
       <c r="T54" s="110"/>
       <c r="U54" s="123">
         <f>L54</f>
-        <v>3057.9</v>
+        <v>0</v>
       </c>
       <c r="V54" s="113"/>
       <c r="W54" s="113"/>
@@ -29362,7 +29362,7 @@
       <c r="K56" s="68"/>
       <c r="L56" s="64">
         <f>SUM(L57:L60)</f>
-        <v>5246.3</v>
+        <v>0</v>
       </c>
       <c r="M56" s="65">
         <f>M57+M58</f>
@@ -29392,7 +29392,7 @@
       </c>
       <c r="U56" s="70">
         <f>SUM(U57:U60)</f>
-        <v>5246.3</v>
+        <v>0</v>
       </c>
       <c r="V56" s="71" t="e">
         <f>S56</f>
@@ -29553,7 +29553,7 @@
       </c>
       <c r="I58" s="105">
         <f>R159</f>
-        <v>379280</v>
+        <v>0</v>
       </c>
       <c r="J58" s="106">
         <f t="shared" si="5"/>
@@ -29562,7 +29562,7 @@
       <c r="K58" s="105"/>
       <c r="L58" s="107">
         <f>I58*G58</f>
-        <v>1896.4</v>
+        <v>0</v>
       </c>
       <c r="M58" s="108"/>
       <c r="N58" s="109"/>
@@ -29574,7 +29574,7 @@
       <c r="T58" s="110"/>
       <c r="U58" s="112">
         <f>L58</f>
-        <v>1896.4</v>
+        <v>0</v>
       </c>
       <c r="V58" s="113"/>
       <c r="W58" s="113"/>
@@ -29631,7 +29631,7 @@
       </c>
       <c r="I59" s="120">
         <f>T159</f>
-        <v>167495</v>
+        <v>0</v>
       </c>
       <c r="J59" s="121">
         <f t="shared" si="5"/>
@@ -29640,7 +29640,7 @@
       <c r="K59" s="120"/>
       <c r="L59" s="122">
         <f>I59*G59</f>
-        <v>3349.9</v>
+        <v>0</v>
       </c>
       <c r="M59" s="108"/>
       <c r="N59" s="109"/>
@@ -29652,7 +29652,7 @@
       <c r="T59" s="110"/>
       <c r="U59" s="123">
         <f>L59</f>
-        <v>3349.9</v>
+        <v>0</v>
       </c>
       <c r="V59" s="113"/>
       <c r="W59" s="113"/>
@@ -29777,7 +29777,7 @@
       <c r="K61" s="68"/>
       <c r="L61" s="64">
         <f>SUM(L62:L65)</f>
-        <v>221.18</v>
+        <v>0</v>
       </c>
       <c r="M61" s="65">
         <f>M62+M63</f>
@@ -29807,7 +29807,7 @@
       </c>
       <c r="U61" s="70">
         <f>SUM(U62:U65)</f>
-        <v>221.18</v>
+        <v>0</v>
       </c>
       <c r="V61" s="71">
         <f>S61</f>
@@ -29815,7 +29815,7 @@
       </c>
       <c r="W61" s="72">
         <f>IF(U61-V61&lt;0,0,U61-V61)</f>
-        <v>221.18</v>
+        <v>0</v>
       </c>
       <c r="X61" s="73">
         <f>SUM(X62:X65)</f>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="Y61" s="74">
         <f>W61+X61</f>
-        <v>221.18</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="69">
         <f>T61+Y61</f>
-        <v>221.18</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="75">
         <f>SUM(AA62:AA65)</f>
@@ -29835,7 +29835,7 @@
       </c>
       <c r="AB61" s="76">
         <f>Z61-AA61</f>
-        <v>221.18</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="74"/>
       <c r="AD61" s="3"/>
@@ -29968,7 +29968,7 @@
       </c>
       <c r="I63" s="105">
         <f>R160</f>
-        <v>32488</v>
+        <v>0</v>
       </c>
       <c r="J63" s="106">
         <f>IF(H63=0,0,I63/H63)</f>
@@ -29977,7 +29977,7 @@
       <c r="K63" s="105"/>
       <c r="L63" s="107">
         <f>I63*G63</f>
-        <v>162.44</v>
+        <v>0</v>
       </c>
       <c r="M63" s="108"/>
       <c r="N63" s="109"/>
@@ -29989,7 +29989,7 @@
       <c r="T63" s="110"/>
       <c r="U63" s="112">
         <f>L63</f>
-        <v>162.44</v>
+        <v>0</v>
       </c>
       <c r="V63" s="113"/>
       <c r="W63" s="113"/>
@@ -30045,7 +30045,7 @@
       </c>
       <c r="I64" s="120">
         <f>T160</f>
-        <v>2937</v>
+        <v>0</v>
       </c>
       <c r="J64" s="121">
         <f>IF(H64=0,0,I64/H64)</f>
@@ -30054,7 +30054,7 @@
       <c r="K64" s="120"/>
       <c r="L64" s="122">
         <f>I64*G64</f>
-        <v>58.74</v>
+        <v>0</v>
       </c>
       <c r="M64" s="108"/>
       <c r="N64" s="109"/>
@@ -30066,7 +30066,7 @@
       <c r="T64" s="110"/>
       <c r="U64" s="123">
         <f>L64</f>
-        <v>58.74</v>
+        <v>0</v>
       </c>
       <c r="V64" s="113"/>
       <c r="W64" s="113"/>
@@ -30190,7 +30190,7 @@
       <c r="K66" s="62"/>
       <c r="L66" s="158">
         <f>SUM(L67:L70)</f>
-        <v>3692.6150000000002</v>
+        <v>0</v>
       </c>
       <c r="M66" s="65">
         <f>M71+M76+M81</f>
@@ -30217,7 +30217,7 @@
       </c>
       <c r="U66" s="70">
         <f>SUM(U67:U70)</f>
-        <v>3692.6150000000002</v>
+        <v>0</v>
       </c>
       <c r="V66" s="71" t="e">
         <f>V71+V76</f>
@@ -30368,7 +30368,7 @@
       </c>
       <c r="I68" s="105">
         <f t="shared" si="7"/>
-        <v>130771</v>
+        <v>0</v>
       </c>
       <c r="J68" s="106">
         <f t="shared" si="5"/>
@@ -30377,7 +30377,7 @@
       <c r="K68" s="105"/>
       <c r="L68" s="107">
         <f>L73+L78+L83</f>
-        <v>653.85500000000002</v>
+        <v>0</v>
       </c>
       <c r="M68" s="108"/>
       <c r="N68" s="109"/>
@@ -30389,7 +30389,7 @@
       <c r="T68" s="110"/>
       <c r="U68" s="112">
         <f>U73+U78+U83</f>
-        <v>653.85500000000002</v>
+        <v>0</v>
       </c>
       <c r="V68" s="113"/>
       <c r="W68" s="113"/>
@@ -30442,7 +30442,7 @@
       </c>
       <c r="I69" s="120">
         <f t="shared" si="7"/>
-        <v>151938</v>
+        <v>0</v>
       </c>
       <c r="J69" s="121">
         <f t="shared" si="5"/>
@@ -30451,7 +30451,7 @@
       <c r="K69" s="120"/>
       <c r="L69" s="122">
         <f>L74+L79+L84</f>
-        <v>3038.76</v>
+        <v>0</v>
       </c>
       <c r="M69" s="108"/>
       <c r="N69" s="109"/>
@@ -30463,7 +30463,7 @@
       <c r="T69" s="110"/>
       <c r="U69" s="123">
         <f>U74+U79+U84</f>
-        <v>3038.76</v>
+        <v>0</v>
       </c>
       <c r="V69" s="113"/>
       <c r="W69" s="113"/>
@@ -30981,7 +30981,7 @@
       <c r="K76" s="68"/>
       <c r="L76" s="64">
         <f>SUM(L77:L80)</f>
-        <v>3515.8150000000001</v>
+        <v>0</v>
       </c>
       <c r="M76" s="65">
         <f>M77+M78</f>
@@ -31011,7 +31011,7 @@
       </c>
       <c r="U76" s="70">
         <f>SUM(U77:U80)</f>
-        <v>3515.8150000000001</v>
+        <v>0</v>
       </c>
       <c r="V76" s="71" t="e">
         <f>S76</f>
@@ -31172,7 +31172,7 @@
       </c>
       <c r="I78" s="105">
         <f>R164</f>
-        <v>130771</v>
+        <v>0</v>
       </c>
       <c r="J78" s="106">
         <f t="shared" si="5"/>
@@ -31181,7 +31181,7 @@
       <c r="K78" s="105"/>
       <c r="L78" s="107">
         <f>I78*G78</f>
-        <v>653.85500000000002</v>
+        <v>0</v>
       </c>
       <c r="M78" s="108"/>
       <c r="N78" s="109"/>
@@ -31193,7 +31193,7 @@
       <c r="T78" s="110"/>
       <c r="U78" s="112">
         <f>L78</f>
-        <v>653.85500000000002</v>
+        <v>0</v>
       </c>
       <c r="V78" s="113"/>
       <c r="W78" s="113"/>
@@ -31250,7 +31250,7 @@
       </c>
       <c r="I79" s="120">
         <f>T164</f>
-        <v>143098</v>
+        <v>0</v>
       </c>
       <c r="J79" s="121">
         <f t="shared" si="5"/>
@@ -31259,7 +31259,7 @@
       <c r="K79" s="120"/>
       <c r="L79" s="122">
         <f>I79*G79</f>
-        <v>2861.96</v>
+        <v>0</v>
       </c>
       <c r="M79" s="108"/>
       <c r="N79" s="109"/>
@@ -31271,7 +31271,7 @@
       <c r="T79" s="110"/>
       <c r="U79" s="123">
         <f>L79</f>
-        <v>2861.96</v>
+        <v>0</v>
       </c>
       <c r="V79" s="113"/>
       <c r="W79" s="113"/>
@@ -31394,7 +31394,7 @@
       <c r="K81" s="68"/>
       <c r="L81" s="64">
         <f>SUM(L82:L85)</f>
-        <v>176.8</v>
+        <v>0</v>
       </c>
       <c r="M81" s="65">
         <f>M82+M83</f>
@@ -31424,7 +31424,7 @@
       </c>
       <c r="U81" s="70">
         <f>SUM(U82:U85)</f>
-        <v>176.8</v>
+        <v>0</v>
       </c>
       <c r="V81" s="71">
         <f>S81</f>
@@ -31432,7 +31432,7 @@
       </c>
       <c r="W81" s="72">
         <f>IF(U81-V81&lt;0,0,U81-V81)</f>
-        <v>176.8</v>
+        <v>0</v>
       </c>
       <c r="X81" s="73">
         <f>SUM(X82:X85)</f>
@@ -31440,11 +31440,11 @@
       </c>
       <c r="Y81" s="74">
         <f>W81+X81</f>
-        <v>176.8</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="69">
         <f>T81+Y81</f>
-        <v>176.8</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="75">
         <f>AA83-X83</f>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="AB81" s="76">
         <f>Z81-AA81</f>
-        <v>176.8</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="74"/>
       <c r="AD81" s="3"/>
@@ -31663,7 +31663,7 @@
       </c>
       <c r="I84" s="120">
         <f>T167</f>
-        <v>8840</v>
+        <v>0</v>
       </c>
       <c r="J84" s="121">
         <f>IF(H84=0,0,I84/H84)</f>
@@ -31672,7 +31672,7 @@
       <c r="K84" s="120"/>
       <c r="L84" s="122">
         <f>I84*G84</f>
-        <v>176.8</v>
+        <v>0</v>
       </c>
       <c r="M84" s="108"/>
       <c r="N84" s="109"/>
@@ -31684,7 +31684,7 @@
       <c r="T84" s="110"/>
       <c r="U84" s="123">
         <f>L84</f>
-        <v>176.8</v>
+        <v>0</v>
       </c>
       <c r="V84" s="113"/>
       <c r="W84" s="113"/>
@@ -31986,7 +31986,7 @@
       </c>
       <c r="I88" s="105">
         <f t="shared" si="8"/>
-        <v>253058</v>
+        <v>0</v>
       </c>
       <c r="J88" s="106">
         <f>IF(H88=0,0,I88/H88)</f>
@@ -31995,7 +31995,7 @@
       <c r="K88" s="105"/>
       <c r="L88" s="107">
         <f t="shared" si="9"/>
-        <v>-59806.85</v>
+        <v>-60000</v>
       </c>
       <c r="M88" s="108"/>
       <c r="N88" s="109"/>
@@ -32007,7 +32007,7 @@
       <c r="T88" s="110"/>
       <c r="U88" s="112">
         <f>U93+U98</f>
-        <v>-59806.85</v>
+        <v>-60000</v>
       </c>
       <c r="V88" s="113"/>
       <c r="W88" s="113"/>
@@ -32060,7 +32060,7 @@
       </c>
       <c r="I89" s="120">
         <f t="shared" si="8"/>
-        <v>1041962</v>
+        <v>0</v>
       </c>
       <c r="J89" s="121">
         <f>IF(H89=0,0,I89/H89)</f>
@@ -32069,7 +32069,7 @@
       <c r="K89" s="120"/>
       <c r="L89" s="122">
         <f t="shared" si="9"/>
-        <v>-43932.28</v>
+        <v>-57500</v>
       </c>
       <c r="M89" s="108"/>
       <c r="N89" s="109"/>
@@ -32081,7 +32081,7 @@
       <c r="T89" s="110"/>
       <c r="U89" s="123">
         <f>U94+U99</f>
-        <v>-43932.28</v>
+        <v>-57500</v>
       </c>
       <c r="V89" s="113"/>
       <c r="W89" s="113"/>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="I93" s="105">
         <f>R158</f>
-        <v>214428</v>
+        <v>0</v>
       </c>
       <c r="J93" s="106">
         <f>IF(H93=0,0,I93/H93)</f>
@@ -32473,7 +32473,7 @@
       </c>
       <c r="I94" s="120">
         <f>T158</f>
-        <v>363576</v>
+        <v>0</v>
       </c>
       <c r="J94" s="121">
         <f>IF(H94=0,0,I94/H94)</f>
@@ -32629,7 +32629,7 @@
       <c r="K96" s="68"/>
       <c r="L96" s="64">
         <f>SUM(L97:L100)</f>
-        <v>13760.87</v>
+        <v>0</v>
       </c>
       <c r="M96" s="65">
         <f>AB162</f>
@@ -32659,7 +32659,7 @@
       </c>
       <c r="U96" s="70">
         <f>SUM(U97:U100)</f>
-        <v>13760.87</v>
+        <v>0</v>
       </c>
       <c r="V96" s="71" t="e">
         <f>S96</f>
@@ -32817,7 +32817,7 @@
       </c>
       <c r="I98" s="105">
         <f>R162</f>
-        <v>38630</v>
+        <v>0</v>
       </c>
       <c r="J98" s="106">
         <f>IF(H98=0,0,I98/H98)</f>
@@ -32826,7 +32826,7 @@
       <c r="K98" s="105"/>
       <c r="L98" s="107">
         <f>I98*G98</f>
-        <v>193.15</v>
+        <v>0</v>
       </c>
       <c r="M98" s="108"/>
       <c r="N98" s="109"/>
@@ -32838,7 +32838,7 @@
       <c r="T98" s="110"/>
       <c r="U98" s="112">
         <f>L98</f>
-        <v>193.15</v>
+        <v>0</v>
       </c>
       <c r="V98" s="113"/>
       <c r="W98" s="113"/>
@@ -32895,7 +32895,7 @@
       </c>
       <c r="I99" s="120">
         <f>T162</f>
-        <v>678386</v>
+        <v>0</v>
       </c>
       <c r="J99" s="121">
         <f>IF(H99=0,0,I99/H99)</f>
@@ -32904,7 +32904,7 @@
       <c r="K99" s="120"/>
       <c r="L99" s="122">
         <f>I99*G99</f>
-        <v>13567.720000000001</v>
+        <v>0</v>
       </c>
       <c r="M99" s="108"/>
       <c r="N99" s="109"/>
@@ -32916,7 +32916,7 @@
       <c r="T99" s="110"/>
       <c r="U99" s="123">
         <f>L99</f>
-        <v>13567.720000000001</v>
+        <v>0</v>
       </c>
       <c r="V99" s="113"/>
       <c r="W99" s="113"/>
@@ -33045,7 +33045,7 @@
       <c r="K101" s="62"/>
       <c r="L101" s="158">
         <f>SUM(L102:L105)</f>
-        <v>5354.26</v>
+        <v>0</v>
       </c>
       <c r="M101" s="65">
         <f>M106+M111</f>
@@ -33072,7 +33072,7 @@
       </c>
       <c r="U101" s="70">
         <f>SUM(U102:U105)</f>
-        <v>5354.26</v>
+        <v>0</v>
       </c>
       <c r="V101" s="71">
         <f>V106+V111</f>
@@ -33080,7 +33080,7 @@
       </c>
       <c r="W101" s="72">
         <f>W106+W111</f>
-        <v>5354.26</v>
+        <v>0</v>
       </c>
       <c r="X101" s="71">
         <f>X106+X111</f>
@@ -33088,11 +33088,11 @@
       </c>
       <c r="Y101" s="74">
         <f>Y106+Y111</f>
-        <v>10354.26</v>
+        <v>5000</v>
       </c>
       <c r="Z101" s="69">
         <f>Z106+Z111</f>
-        <v>65354.259999999995</v>
+        <v>60000</v>
       </c>
       <c r="AA101" s="75">
         <f>SUM(AA102:AA105)</f>
@@ -33100,7 +33100,7 @@
       </c>
       <c r="AB101" s="76">
         <f>AB106+AB111</f>
-        <v>65354.259999999995</v>
+        <v>60000</v>
       </c>
       <c r="AC101" s="74"/>
       <c r="AD101" s="3"/>
@@ -33223,7 +33223,7 @@
       </c>
       <c r="I103" s="105">
         <f t="shared" si="10"/>
-        <v>53472</v>
+        <v>0</v>
       </c>
       <c r="J103" s="106">
         <f>IF(H103=0,0,I103/H103)</f>
@@ -33232,7 +33232,7 @@
       <c r="K103" s="105"/>
       <c r="L103" s="107">
         <f>L108+L113</f>
-        <v>267.36</v>
+        <v>0</v>
       </c>
       <c r="M103" s="108"/>
       <c r="N103" s="109"/>
@@ -33244,7 +33244,7 @@
       <c r="T103" s="110"/>
       <c r="U103" s="112">
         <f>U108+U113</f>
-        <v>267.36</v>
+        <v>0</v>
       </c>
       <c r="V103" s="113"/>
       <c r="W103" s="113"/>
@@ -33297,7 +33297,7 @@
       </c>
       <c r="I104" s="120">
         <f t="shared" si="10"/>
-        <v>254345</v>
+        <v>0</v>
       </c>
       <c r="J104" s="121">
         <f>IF(H104=0,0,I104/H104)</f>
@@ -33306,7 +33306,7 @@
       <c r="K104" s="120"/>
       <c r="L104" s="122">
         <f>L109+L114</f>
-        <v>5086.9000000000005</v>
+        <v>0</v>
       </c>
       <c r="M104" s="108"/>
       <c r="N104" s="109"/>
@@ -33318,7 +33318,7 @@
       <c r="T104" s="110"/>
       <c r="U104" s="123">
         <f>U109+U114</f>
-        <v>5086.9000000000005</v>
+        <v>0</v>
       </c>
       <c r="V104" s="113"/>
       <c r="W104" s="113"/>
@@ -33454,7 +33454,7 @@
       <c r="K106" s="68"/>
       <c r="L106" s="64">
         <f>SUM(L107:L110)</f>
-        <v>5244.585</v>
+        <v>0</v>
       </c>
       <c r="M106" s="65">
         <f>M107+M108</f>
@@ -33484,7 +33484,7 @@
       </c>
       <c r="U106" s="70">
         <f>SUM(U107:U110)</f>
-        <v>5244.585</v>
+        <v>0</v>
       </c>
       <c r="V106" s="71">
         <f>S106</f>
@@ -33492,7 +33492,7 @@
       </c>
       <c r="W106" s="72">
         <f>IF(U106-V106&lt;0,0,U106-V106)</f>
-        <v>5244.585</v>
+        <v>0</v>
       </c>
       <c r="X106" s="73">
         <f>SUM(X107:X110)</f>
@@ -33500,11 +33500,11 @@
       </c>
       <c r="Y106" s="74">
         <f>W106+X106</f>
-        <v>5244.585</v>
+        <v>0</v>
       </c>
       <c r="Z106" s="69">
         <f>T106+Y106</f>
-        <v>35244.584999999999</v>
+        <v>30000</v>
       </c>
       <c r="AA106" s="75">
         <f>SUM(AA107:AA110)</f>
@@ -33512,7 +33512,7 @@
       </c>
       <c r="AB106" s="76">
         <f>Z106-AA106</f>
-        <v>35244.584999999999</v>
+        <v>30000</v>
       </c>
       <c r="AC106" s="74"/>
       <c r="AD106" s="3"/>
@@ -33645,7 +33645,7 @@
       </c>
       <c r="I108" s="105">
         <f>R166</f>
-        <v>46197</v>
+        <v>0</v>
       </c>
       <c r="J108" s="106">
         <f>IF(H108=0,0,I108/H108)</f>
@@ -33654,7 +33654,7 @@
       <c r="K108" s="105"/>
       <c r="L108" s="107">
         <f>I108*G108</f>
-        <v>230.98500000000001</v>
+        <v>0</v>
       </c>
       <c r="M108" s="108"/>
       <c r="N108" s="109"/>
@@ -33666,7 +33666,7 @@
       <c r="T108" s="110"/>
       <c r="U108" s="112">
         <f>L108</f>
-        <v>230.98500000000001</v>
+        <v>0</v>
       </c>
       <c r="V108" s="113"/>
       <c r="W108" s="113"/>
@@ -33723,7 +33723,7 @@
       </c>
       <c r="I109" s="120">
         <f>T166</f>
-        <v>250680</v>
+        <v>0</v>
       </c>
       <c r="J109" s="121">
         <f>IF(H109=0,0,I109/H109)</f>
@@ -33732,7 +33732,7 @@
       <c r="K109" s="120"/>
       <c r="L109" s="122">
         <f>I109*G109</f>
-        <v>5013.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="M109" s="108"/>
       <c r="N109" s="109"/>
@@ -33744,7 +33744,7 @@
       <c r="T109" s="110"/>
       <c r="U109" s="123">
         <f>L109</f>
-        <v>5013.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="V109" s="113"/>
       <c r="W109" s="113"/>
@@ -33870,7 +33870,7 @@
       </c>
       <c r="I111" s="68">
         <f>SUM(I112:I115)</f>
-        <v>10940</v>
+        <v>0</v>
       </c>
       <c r="J111" s="168">
         <f>IF(H111=0,0,I111/H111)</f>
@@ -33882,7 +33882,7 @@
       </c>
       <c r="L111" s="64">
         <f>SUM(L112:L115)</f>
-        <v>109.675</v>
+        <v>0</v>
       </c>
       <c r="M111" s="65">
         <f>M112+M113</f>
@@ -33912,7 +33912,7 @@
       </c>
       <c r="U111" s="70">
         <f>SUM(U112:U115)</f>
-        <v>109.675</v>
+        <v>0</v>
       </c>
       <c r="V111" s="71">
         <f>S111</f>
@@ -33920,7 +33920,7 @@
       </c>
       <c r="W111" s="72">
         <f>U111-V111</f>
-        <v>109.675</v>
+        <v>0</v>
       </c>
       <c r="X111" s="73">
         <f>SUM(X112:X115)</f>
@@ -33928,11 +33928,11 @@
       </c>
       <c r="Y111" s="74">
         <f>W111+X111</f>
-        <v>5109.6750000000002</v>
+        <v>5000</v>
       </c>
       <c r="Z111" s="69">
         <f>T111+Y111</f>
-        <v>30109.674999999999</v>
+        <v>30000</v>
       </c>
       <c r="AA111" s="75">
         <f>SUM(AA112:AA115)</f>
@@ -33940,7 +33940,7 @@
       </c>
       <c r="AB111" s="76">
         <f>Z111-AA111</f>
-        <v>30109.674999999999</v>
+        <v>30000</v>
       </c>
       <c r="AC111" s="74"/>
       <c r="AD111" s="3"/>
@@ -34073,7 +34073,7 @@
       </c>
       <c r="I113" s="105">
         <f>R169</f>
-        <v>7275</v>
+        <v>0</v>
       </c>
       <c r="J113" s="106">
         <f t="shared" si="11"/>
@@ -34082,7 +34082,7 @@
       <c r="K113" s="105"/>
       <c r="L113" s="107">
         <f>I113*G113</f>
-        <v>36.375</v>
+        <v>0</v>
       </c>
       <c r="M113" s="108"/>
       <c r="N113" s="109"/>
@@ -34094,7 +34094,7 @@
       <c r="T113" s="110"/>
       <c r="U113" s="112">
         <f>L113</f>
-        <v>36.375</v>
+        <v>0</v>
       </c>
       <c r="V113" s="113"/>
       <c r="W113" s="113"/>
@@ -34151,7 +34151,7 @@
       </c>
       <c r="I114" s="120">
         <f>T169</f>
-        <v>3665</v>
+        <v>0</v>
       </c>
       <c r="J114" s="121">
         <f t="shared" si="11"/>
@@ -34160,7 +34160,7 @@
       <c r="K114" s="120"/>
       <c r="L114" s="122">
         <f>I114*G114</f>
-        <v>73.3</v>
+        <v>0</v>
       </c>
       <c r="M114" s="108"/>
       <c r="N114" s="109"/>
@@ -34172,7 +34172,7 @@
       <c r="T114" s="110"/>
       <c r="U114" s="123">
         <f>L114</f>
-        <v>73.3</v>
+        <v>0</v>
       </c>
       <c r="V114" s="113"/>
       <c r="W114" s="113"/>
@@ -36565,11 +36565,11 @@
       <c r="AZ145" s="77"/>
     </row>
     <row r="146" spans="1:52" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="344" t="s">
+      <c r="A146" s="351" t="s">
         <v>115</v>
       </c>
-      <c r="B146" s="345"/>
-      <c r="C146" s="346"/>
+      <c r="B146" s="352"/>
+      <c r="C146" s="353"/>
       <c r="D146" s="271"/>
       <c r="E146" s="272">
         <f>E11+E16+E101+E86+E66+E41+E21+E116+E141</f>
@@ -36684,9 +36684,9 @@
       <c r="AZ146" s="3"/>
     </row>
     <row r="147" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="347"/>
-      <c r="B147" s="347"/>
-      <c r="C147" s="347"/>
+      <c r="A147" s="354"/>
+      <c r="B147" s="354"/>
+      <c r="C147" s="354"/>
       <c r="D147" s="282"/>
       <c r="E147" s="283"/>
       <c r="F147" s="284"/>
@@ -37025,27 +37025,27 @@
     <row r="155" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="302"/>
       <c r="B155" s="302"/>
-      <c r="C155" s="360" t="s">
+      <c r="C155" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="D155" s="362" t="s">
+      <c r="D155" s="334" t="s">
         <v>11</v>
       </c>
-      <c r="E155" s="363"/>
-      <c r="F155" s="332" t="s">
+      <c r="E155" s="335"/>
+      <c r="F155" s="336" t="s">
         <v>117</v>
       </c>
-      <c r="G155" s="364"/>
-      <c r="H155" s="364"/>
-      <c r="I155" s="333"/>
-      <c r="J155" s="365" t="s">
+      <c r="G155" s="337"/>
+      <c r="H155" s="337"/>
+      <c r="I155" s="338"/>
+      <c r="J155" s="339" t="s">
         <v>118</v>
       </c>
-      <c r="K155" s="366"/>
-      <c r="L155" s="334" t="s">
+      <c r="K155" s="340"/>
+      <c r="L155" s="341" t="s">
         <v>119</v>
       </c>
-      <c r="M155" s="335"/>
+      <c r="M155" s="342"/>
       <c r="N155" s="303" t="s">
         <v>120</v>
       </c>
@@ -37055,22 +37055,22 @@
       <c r="P155" s="304" t="s">
         <v>122</v>
       </c>
-      <c r="Q155" s="332" t="s">
+      <c r="Q155" s="336" t="s">
         <v>123</v>
       </c>
-      <c r="R155" s="333"/>
-      <c r="S155" s="334" t="s">
+      <c r="R155" s="338"/>
+      <c r="S155" s="341" t="s">
         <v>124</v>
       </c>
-      <c r="T155" s="335"/>
-      <c r="U155" s="334" t="s">
+      <c r="T155" s="342"/>
+      <c r="U155" s="341" t="s">
         <v>125</v>
       </c>
-      <c r="V155" s="335"/>
-      <c r="W155" s="334" t="s">
+      <c r="V155" s="342"/>
+      <c r="W155" s="341" t="s">
         <v>126</v>
       </c>
-      <c r="X155" s="335"/>
+      <c r="X155" s="342"/>
       <c r="Y155" s="303" t="s">
         <v>127</v>
       </c>
@@ -37083,10 +37083,10 @@
       <c r="AB155" s="306" t="s">
         <v>130</v>
       </c>
-      <c r="AC155" s="334" t="s">
+      <c r="AC155" s="341" t="s">
         <v>131</v>
       </c>
-      <c r="AD155" s="335"/>
+      <c r="AD155" s="342"/>
       <c r="AE155" s="302"/>
       <c r="AF155" s="302"/>
       <c r="AG155" s="302"/>
@@ -37113,7 +37113,7 @@
     <row r="156" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="302"/>
       <c r="B156" s="302"/>
-      <c r="C156" s="361"/>
+      <c r="C156" s="333"/>
       <c r="D156" s="307" t="s">
         <v>132</v>
       </c>
@@ -37240,13 +37240,9 @@
       <c r="O157" s="317"/>
       <c r="P157" s="317"/>
       <c r="Q157" s="317"/>
-      <c r="R157" s="317">
-        <v>78903</v>
-      </c>
+      <c r="R157" s="317"/>
       <c r="S157" s="317"/>
-      <c r="T157" s="317">
-        <v>0</v>
-      </c>
+      <c r="T157" s="317"/>
       <c r="U157" s="317"/>
       <c r="V157" s="317"/>
       <c r="W157" s="317"/>
@@ -37306,13 +37302,9 @@
       <c r="O158" s="317"/>
       <c r="P158" s="317"/>
       <c r="Q158" s="317"/>
-      <c r="R158" s="317">
-        <v>214428</v>
-      </c>
+      <c r="R158" s="317"/>
       <c r="S158" s="317"/>
-      <c r="T158" s="317">
-        <v>363576</v>
-      </c>
+      <c r="T158" s="317"/>
       <c r="U158" s="317"/>
       <c r="V158" s="317"/>
       <c r="W158" s="317"/>
@@ -37372,13 +37364,9 @@
       <c r="O159" s="317"/>
       <c r="P159" s="317"/>
       <c r="Q159" s="317"/>
-      <c r="R159" s="317">
-        <v>379280</v>
-      </c>
+      <c r="R159" s="317"/>
       <c r="S159" s="317"/>
-      <c r="T159" s="317">
-        <v>167495</v>
-      </c>
+      <c r="T159" s="317"/>
       <c r="U159" s="317"/>
       <c r="V159" s="317"/>
       <c r="W159" s="317"/>
@@ -37438,13 +37426,9 @@
       <c r="O160" s="317"/>
       <c r="P160" s="317"/>
       <c r="Q160" s="317"/>
-      <c r="R160" s="317">
-        <v>32488</v>
-      </c>
+      <c r="R160" s="317"/>
       <c r="S160" s="317"/>
-      <c r="T160" s="317">
-        <v>2937</v>
-      </c>
+      <c r="T160" s="317"/>
       <c r="U160" s="317"/>
       <c r="V160" s="317"/>
       <c r="W160" s="317"/>
@@ -37504,13 +37488,9 @@
       <c r="O161" s="317"/>
       <c r="P161" s="317"/>
       <c r="Q161" s="317"/>
-      <c r="R161" s="317">
-        <v>117388</v>
-      </c>
+      <c r="R161" s="317"/>
       <c r="S161" s="317"/>
-      <c r="T161" s="317">
-        <v>152895</v>
-      </c>
+      <c r="T161" s="317"/>
       <c r="U161" s="317"/>
       <c r="V161" s="317"/>
       <c r="W161" s="317"/>
@@ -37570,13 +37550,9 @@
       <c r="O162" s="317"/>
       <c r="P162" s="317"/>
       <c r="Q162" s="317"/>
-      <c r="R162" s="317">
-        <v>38630</v>
-      </c>
+      <c r="R162" s="317"/>
       <c r="S162" s="317"/>
-      <c r="T162" s="317">
-        <v>678386</v>
-      </c>
+      <c r="T162" s="317"/>
       <c r="U162" s="317"/>
       <c r="V162" s="317"/>
       <c r="W162" s="317"/>
@@ -37636,13 +37612,9 @@
       <c r="O163" s="317"/>
       <c r="P163" s="317"/>
       <c r="Q163" s="317"/>
-      <c r="R163" s="317">
-        <v>545</v>
-      </c>
+      <c r="R163" s="317"/>
       <c r="S163" s="317"/>
-      <c r="T163" s="317">
-        <v>3465</v>
-      </c>
+      <c r="T163" s="317"/>
       <c r="U163" s="317"/>
       <c r="V163" s="317"/>
       <c r="W163" s="317"/>
@@ -37702,13 +37674,9 @@
       <c r="O164" s="317"/>
       <c r="P164" s="317"/>
       <c r="Q164" s="317"/>
-      <c r="R164" s="317">
-        <v>130771</v>
-      </c>
+      <c r="R164" s="317"/>
       <c r="S164" s="317"/>
-      <c r="T164" s="317">
-        <v>143098</v>
-      </c>
+      <c r="T164" s="317"/>
       <c r="U164" s="317"/>
       <c r="V164" s="317"/>
       <c r="W164" s="317"/>
@@ -37768,13 +37736,9 @@
       <c r="O165" s="317"/>
       <c r="P165" s="317"/>
       <c r="Q165" s="317"/>
-      <c r="R165" s="317">
-        <v>19266</v>
-      </c>
+      <c r="R165" s="317"/>
       <c r="S165" s="317"/>
-      <c r="T165" s="317">
-        <v>425861</v>
-      </c>
+      <c r="T165" s="317"/>
       <c r="U165" s="317"/>
       <c r="V165" s="317"/>
       <c r="W165" s="317"/>
@@ -37834,13 +37798,9 @@
       <c r="O166" s="317"/>
       <c r="P166" s="317"/>
       <c r="Q166" s="317"/>
-      <c r="R166" s="317">
-        <v>46197</v>
-      </c>
+      <c r="R166" s="317"/>
       <c r="S166" s="317"/>
-      <c r="T166" s="317">
-        <v>250680</v>
-      </c>
+      <c r="T166" s="317"/>
       <c r="U166" s="317"/>
       <c r="V166" s="317"/>
       <c r="W166" s="317"/>
@@ -37900,13 +37860,9 @@
       <c r="O167" s="317"/>
       <c r="P167" s="317"/>
       <c r="Q167" s="317"/>
-      <c r="R167" s="317">
-        <v>0</v>
-      </c>
+      <c r="R167" s="317"/>
       <c r="S167" s="317"/>
-      <c r="T167" s="317">
-        <v>8840</v>
-      </c>
+      <c r="T167" s="317"/>
       <c r="U167" s="317"/>
       <c r="V167" s="317"/>
       <c r="W167" s="317"/>
@@ -37966,13 +37922,9 @@
       <c r="O168" s="317"/>
       <c r="P168" s="317"/>
       <c r="Q168" s="317"/>
-      <c r="R168" s="317">
-        <v>11278</v>
-      </c>
+      <c r="R168" s="317"/>
       <c r="S168" s="317"/>
-      <c r="T168" s="317">
-        <v>1974</v>
-      </c>
+      <c r="T168" s="317"/>
       <c r="U168" s="317"/>
       <c r="V168" s="317"/>
       <c r="W168" s="317"/>
@@ -38032,13 +37984,9 @@
       <c r="O169" s="317"/>
       <c r="P169" s="317"/>
       <c r="Q169" s="317"/>
-      <c r="R169" s="317">
-        <v>7275</v>
-      </c>
+      <c r="R169" s="317"/>
       <c r="S169" s="317"/>
-      <c r="T169" s="317">
-        <v>3665</v>
-      </c>
+      <c r="T169" s="317"/>
       <c r="U169" s="317"/>
       <c r="V169" s="317"/>
       <c r="W169" s="317"/>
@@ -38136,7 +38084,7 @@
       </c>
       <c r="R170" s="327">
         <f t="shared" si="17"/>
-        <v>1076449</v>
+        <v>0</v>
       </c>
       <c r="S170" s="324">
         <f t="shared" si="17"/>
@@ -38144,7 +38092,7 @@
       </c>
       <c r="T170" s="327">
         <f t="shared" si="17"/>
-        <v>2202872</v>
+        <v>0</v>
       </c>
       <c r="U170" s="328">
         <f t="shared" si="17"/>
@@ -38211,11 +38159,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="U155:V155"/>
+    <mergeCell ref="W155:X155"/>
+    <mergeCell ref="AC155:AD155"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="M9:S9"/>
@@ -38227,11 +38175,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="U155:V155"/>
-    <mergeCell ref="W155:X155"/>
-    <mergeCell ref="AC155:AD155"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M155"/>
   </mergeCells>
   <conditionalFormatting sqref="H157:H169">
     <cfRule type="top10" dxfId="2164" priority="2164" bottom="1" rank="1"/>
